--- a/docs/PinsApi.xlsx
+++ b/docs/PinsApi.xlsx
@@ -12,16 +12,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15012" windowHeight="11268"/>
   </bookViews>
   <sheets>
-    <sheet name="AppKit TC237 Pin" sheetId="2" r:id="rId1"/>
+    <sheet name="AppKit TC237 Pin &amp; API" sheetId="2" r:id="rId1"/>
     <sheet name="GtmTomTimer" sheetId="11" r:id="rId2"/>
     <sheet name="GtmTomPwmHl" sheetId="10" r:id="rId3"/>
     <sheet name="Vadc" sheetId="12" r:id="rId4"/>
     <sheet name="P0-P0FC" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AppKit TC237 Pin'!$B$4:$G$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AppKit TC237 Pin &amp; API'!$B$4:$G$116</definedName>
     <definedName name="details" localSheetId="1">GtmTomTimer!$B$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'AppKit TC237 Pin'!$B$1:$G$117</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'AppKit TC237 Pin &amp; API'!$B$1:$G$117</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -3479,15 +3479,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3573,36 +3564,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="강조색5" xfId="1" builtinId="45"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
@@ -4060,7 +4036,7 @@
   </sheetPr>
   <dimension ref="B1:K475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -4086,20 +4062,20 @@
     </row>
     <row r="2" spans="2:11" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:11" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="53" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="2:11" s="8" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
@@ -4120,14 +4096,14 @@
       <c r="G4" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="H4" s="55"/>
+      <c r="I4" s="61" t="s">
         <v>727</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="62" t="s">
         <v>726</v>
       </c>
-      <c r="K4" s="66"/>
+      <c r="K4" s="63"/>
     </row>
     <row r="5" spans="2:11" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
@@ -4158,13 +4134,13 @@
       <c r="G6" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="64" t="s">
         <v>515</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="65" t="s">
         <v>563</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="66" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4185,13 +4161,13 @@
       <c r="G7" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="67" t="s">
         <v>518</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="K7" s="71" t="s">
+      <c r="K7" s="68" t="s">
         <v>558</v>
       </c>
     </row>
@@ -4208,8 +4184,8 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
-      <c r="I8" s="70"/>
-      <c r="K8" s="71"/>
+      <c r="I8" s="67"/>
+      <c r="K8" s="68"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
@@ -4228,9 +4204,9 @@
       <c r="G9" s="46" t="s">
         <v>537</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="70"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="67"/>
+      <c r="K9" s="68"/>
     </row>
     <row r="10" spans="2:11" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
@@ -4249,10 +4225,10 @@
       <c r="G10" s="46" t="s">
         <v>539</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="74"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="71"/>
     </row>
     <row r="11" spans="2:11" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
@@ -4285,13 +4261,13 @@
       <c r="G12" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="64" t="s">
         <v>515</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="65" t="s">
         <v>565</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="66" t="s">
         <v>566</v>
       </c>
     </row>
@@ -4312,13 +4288,13 @@
       <c r="G13" s="44" t="s">
         <v>540</v>
       </c>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="67" t="s">
         <v>519</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="68" t="s">
         <v>560</v>
       </c>
     </row>
@@ -4335,8 +4311,8 @@
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
-      <c r="I14" s="70"/>
-      <c r="K14" s="71"/>
+      <c r="I14" s="67"/>
+      <c r="K14" s="68"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="14" t="s">
@@ -4355,9 +4331,9 @@
       <c r="G15" s="46" t="s">
         <v>538</v>
       </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="70"/>
-      <c r="K15" s="71"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="67"/>
+      <c r="K15" s="68"/>
     </row>
     <row r="16" spans="2:11" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
@@ -4376,10 +4352,10 @@
       <c r="G16" s="46" t="s">
         <v>540</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="74"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="71"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
@@ -4420,13 +4396,13 @@
       <c r="G19" s="44" t="s">
         <v>516</v>
       </c>
-      <c r="I19" s="75" t="s">
+      <c r="I19" s="72" t="s">
         <v>517</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="73" t="s">
         <v>561</v>
       </c>
-      <c r="K19" s="77" t="s">
+      <c r="K19" s="74" t="s">
         <v>562</v>
       </c>
     </row>
@@ -4443,7 +4419,7 @@
         <v>472</v>
       </c>
       <c r="C21" s="14"/>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="53" t="s">
         <v>680</v>
       </c>
       <c r="E21" s="51" t="s">
@@ -4479,11 +4455,11 @@
       <c r="G23" s="47" t="s">
         <v>545</v>
       </c>
-      <c r="I23" s="78" t="s">
+      <c r="I23" s="75" t="s">
         <v>521</v>
       </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="80" t="s">
+      <c r="J23" s="76"/>
+      <c r="K23" s="77" t="s">
         <v>569</v>
       </c>
     </row>
@@ -4507,8 +4483,8 @@
       <c r="I24" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="J24" s="81"/>
-      <c r="K24" s="82" t="s">
+      <c r="J24" s="78"/>
+      <c r="K24" s="79" t="s">
         <v>569</v>
       </c>
     </row>
@@ -4517,7 +4493,7 @@
         <v>245</v>
       </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="53" t="s">
         <v>683</v>
       </c>
       <c r="E25" s="51" t="s">
@@ -4567,16 +4543,16 @@
       <c r="G28" s="44" t="s">
         <v>542</v>
       </c>
-      <c r="I28" s="67"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="69"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="66"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="14" t="s">
         <v>248</v>
       </c>
       <c r="C29" s="14"/>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="53" t="s">
         <v>687</v>
       </c>
       <c r="E29" s="51" t="s">
@@ -4584,10 +4560,10 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="17"/>
-      <c r="I29" s="70" t="s">
+      <c r="I29" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="K29" s="71" t="s">
+      <c r="K29" s="68" t="s">
         <v>579</v>
       </c>
     </row>
@@ -4608,8 +4584,8 @@
       <c r="G30" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="I30" s="70"/>
-      <c r="K30" s="71"/>
+      <c r="I30" s="67"/>
+      <c r="K30" s="68"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
@@ -4628,11 +4604,11 @@
       <c r="G31" s="47" t="s">
         <v>547</v>
       </c>
-      <c r="I31" s="78" t="s">
+      <c r="I31" s="75" t="s">
         <v>521</v>
       </c>
-      <c r="J31" s="79"/>
-      <c r="K31" s="80" t="s">
+      <c r="J31" s="76"/>
+      <c r="K31" s="77" t="s">
         <v>569</v>
       </c>
     </row>
@@ -4656,8 +4632,8 @@
       <c r="I32" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="J32" s="81"/>
-      <c r="K32" s="82" t="s">
+      <c r="J32" s="78"/>
+      <c r="K32" s="79" t="s">
         <v>569</v>
       </c>
     </row>
@@ -4810,9 +4786,9 @@
       <c r="G43" s="47" t="s">
         <v>556</v>
       </c>
-      <c r="I43" s="67"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="69" t="s">
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="66" t="s">
         <v>576</v>
       </c>
     </row>
@@ -4832,8 +4808,8 @@
         <v>527</v>
       </c>
       <c r="I44" s="15"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="84" t="s">
+      <c r="J44" s="80"/>
+      <c r="K44" s="81" t="s">
         <v>577</v>
       </c>
     </row>
@@ -4983,8 +4959,8 @@
         <v>528</v>
       </c>
       <c r="I54" s="15"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="84" t="s">
+      <c r="J54" s="80"/>
+      <c r="K54" s="81" t="s">
         <v>578</v>
       </c>
     </row>
@@ -5257,9 +5233,9 @@
       <c r="G74" s="47" t="s">
         <v>524</v>
       </c>
-      <c r="I74" s="67"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="69"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="66"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="14"/>
@@ -5276,13 +5252,13 @@
       <c r="G75" s="47" t="s">
         <v>529</v>
       </c>
-      <c r="I75" s="70" t="s">
+      <c r="I75" s="67" t="s">
         <v>526</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="K75" s="71" t="s">
+      <c r="K75" s="68" t="s">
         <v>571</v>
       </c>
     </row>
@@ -5301,11 +5277,11 @@
       <c r="G76" s="47" t="s">
         <v>530</v>
       </c>
-      <c r="I76" s="70"/>
+      <c r="I76" s="67"/>
       <c r="J76" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="K76" s="71" t="s">
+      <c r="K76" s="68" t="s">
         <v>574</v>
       </c>
     </row>
@@ -5324,11 +5300,11 @@
       <c r="G77" s="47" t="s">
         <v>531</v>
       </c>
-      <c r="I77" s="72"/>
-      <c r="J77" s="73" t="s">
+      <c r="I77" s="69"/>
+      <c r="J77" s="70" t="s">
         <v>573</v>
       </c>
-      <c r="K77" s="74" t="s">
+      <c r="K77" s="71" t="s">
         <v>575</v>
       </c>
     </row>
@@ -5355,11 +5331,11 @@
       <c r="G79" s="47" t="s">
         <v>544</v>
       </c>
-      <c r="I79" s="75"/>
-      <c r="J79" s="76" t="s">
+      <c r="I79" s="72"/>
+      <c r="J79" s="73" t="s">
         <v>568</v>
       </c>
-      <c r="K79" s="77" t="s">
+      <c r="K79" s="74" t="s">
         <v>567</v>
       </c>
     </row>
@@ -5384,11 +5360,11 @@
         <v>192</v>
       </c>
       <c r="G81" s="17"/>
-      <c r="I81" s="67" t="s">
+      <c r="I81" s="64" t="s">
         <v>523</v>
       </c>
-      <c r="J81" s="68"/>
-      <c r="K81" s="69"/>
+      <c r="J81" s="65"/>
+      <c r="K81" s="66"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="14"/>
@@ -5403,10 +5379,10 @@
         <v>193</v>
       </c>
       <c r="G82" s="13"/>
-      <c r="I82" s="70" t="s">
+      <c r="I82" s="67" t="s">
         <v>523</v>
       </c>
-      <c r="K82" s="71"/>
+      <c r="K82" s="68"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="14"/>
@@ -5421,10 +5397,10 @@
         <v>194</v>
       </c>
       <c r="G83" s="13"/>
-      <c r="I83" s="70" t="s">
+      <c r="I83" s="67" t="s">
         <v>523</v>
       </c>
-      <c r="K83" s="71"/>
+      <c r="K83" s="68"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="14"/>
@@ -5439,10 +5415,10 @@
         <v>196</v>
       </c>
       <c r="G84" s="17"/>
-      <c r="I84" s="70" t="s">
+      <c r="I84" s="67" t="s">
         <v>523</v>
       </c>
-      <c r="K84" s="71"/>
+      <c r="K84" s="68"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="14"/>
@@ -5457,10 +5433,10 @@
         <v>211</v>
       </c>
       <c r="G85" s="17"/>
-      <c r="I85" s="70" t="s">
+      <c r="I85" s="67" t="s">
         <v>523</v>
       </c>
-      <c r="K85" s="71"/>
+      <c r="K85" s="68"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="14"/>
@@ -5475,10 +5451,10 @@
         <v>195</v>
       </c>
       <c r="G86" s="13"/>
-      <c r="I86" s="70" t="s">
+      <c r="I86" s="67" t="s">
         <v>523</v>
       </c>
-      <c r="K86" s="71"/>
+      <c r="K86" s="68"/>
     </row>
     <row r="87" spans="2:11" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="14"/>
@@ -5493,11 +5469,11 @@
         <v>209</v>
       </c>
       <c r="G87" s="13"/>
-      <c r="I87" s="72" t="s">
+      <c r="I87" s="69" t="s">
         <v>523</v>
       </c>
-      <c r="J87" s="73"/>
-      <c r="K87" s="74"/>
+      <c r="J87" s="70"/>
+      <c r="K87" s="71"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="14"/>
@@ -5820,11 +5796,11 @@
         <v>224</v>
       </c>
       <c r="G113" s="17"/>
-      <c r="I113" s="67" t="s">
+      <c r="I113" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="J113" s="68"/>
-      <c r="K113" s="69"/>
+      <c r="J113" s="65"/>
+      <c r="K113" s="66"/>
     </row>
     <row r="114" spans="2:11" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B114" s="14"/>
@@ -5839,11 +5815,11 @@
         <v>225</v>
       </c>
       <c r="G114" s="13"/>
-      <c r="I114" s="72" t="s">
+      <c r="I114" s="69" t="s">
         <v>522</v>
       </c>
-      <c r="J114" s="73"/>
-      <c r="K114" s="74"/>
+      <c r="J114" s="70"/>
+      <c r="K114" s="71"/>
     </row>
     <row r="115" spans="2:11" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B115" s="19"/>
@@ -5864,7 +5840,7 @@
       <c r="E117" s="23"/>
       <c r="F117" s="23"/>
       <c r="G117" s="23"/>
-      <c r="H117" s="59"/>
+      <c r="H117" s="56"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" s="24"/>
@@ -5873,7 +5849,7 @@
       <c r="E118" s="24"/>
       <c r="F118" s="24"/>
       <c r="G118" s="24"/>
-      <c r="H118" s="60"/>
+      <c r="H118" s="57"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B119" s="24"/>
@@ -5882,7 +5858,7 @@
       <c r="E119" s="24"/>
       <c r="F119" s="24"/>
       <c r="G119" s="24"/>
-      <c r="H119" s="60"/>
+      <c r="H119" s="57"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B120" s="24"/>
@@ -5891,7 +5867,7 @@
       <c r="E120" s="24"/>
       <c r="F120" s="24"/>
       <c r="G120" s="24"/>
-      <c r="H120" s="60"/>
+      <c r="H120" s="57"/>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B121" s="24"/>
@@ -5900,7 +5876,7 @@
       <c r="E121" s="24"/>
       <c r="F121" s="24"/>
       <c r="G121" s="24"/>
-      <c r="H121" s="60"/>
+      <c r="H121" s="57"/>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B122" s="24"/>
@@ -5909,7 +5885,7 @@
       <c r="E122" s="24"/>
       <c r="F122" s="24"/>
       <c r="G122" s="24"/>
-      <c r="H122" s="60"/>
+      <c r="H122" s="57"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B123" s="24"/>
@@ -5918,7 +5894,7 @@
       <c r="E123" s="24"/>
       <c r="F123" s="24"/>
       <c r="G123" s="24"/>
-      <c r="H123" s="60"/>
+      <c r="H123" s="57"/>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B124" s="24"/>
@@ -5927,7 +5903,7 @@
       <c r="E124" s="24"/>
       <c r="F124" s="24"/>
       <c r="G124" s="24"/>
-      <c r="H124" s="60"/>
+      <c r="H124" s="57"/>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B125" s="24"/>
@@ -5936,7 +5912,7 @@
       <c r="E125" s="24"/>
       <c r="F125" s="24"/>
       <c r="G125" s="24"/>
-      <c r="H125" s="60"/>
+      <c r="H125" s="57"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B126" s="24"/>
@@ -5945,7 +5921,7 @@
       <c r="E126" s="24"/>
       <c r="F126" s="24"/>
       <c r="G126" s="24"/>
-      <c r="H126" s="60"/>
+      <c r="H126" s="57"/>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B127" s="24"/>
@@ -5954,7 +5930,7 @@
       <c r="E127" s="24"/>
       <c r="F127" s="24"/>
       <c r="G127" s="24"/>
-      <c r="H127" s="60"/>
+      <c r="H127" s="57"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B128" s="24"/>
@@ -5963,7 +5939,7 @@
       <c r="E128" s="24"/>
       <c r="F128" s="24"/>
       <c r="G128" s="24"/>
-      <c r="H128" s="60"/>
+      <c r="H128" s="57"/>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B129" s="24"/>
@@ -5972,7 +5948,7 @@
       <c r="E129" s="24"/>
       <c r="F129" s="24"/>
       <c r="G129" s="24"/>
-      <c r="H129" s="60"/>
+      <c r="H129" s="57"/>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B130" s="24"/>
@@ -5981,7 +5957,7 @@
       <c r="E130" s="24"/>
       <c r="F130" s="24"/>
       <c r="G130" s="24"/>
-      <c r="H130" s="60"/>
+      <c r="H130" s="57"/>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B131" s="24"/>
@@ -5990,7 +5966,7 @@
       <c r="E131" s="24"/>
       <c r="F131" s="24"/>
       <c r="G131" s="24"/>
-      <c r="H131" s="60"/>
+      <c r="H131" s="57"/>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B132" s="24"/>
@@ -5999,7 +5975,7 @@
       <c r="E132" s="24"/>
       <c r="F132" s="24"/>
       <c r="G132" s="24"/>
-      <c r="H132" s="60"/>
+      <c r="H132" s="57"/>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B133" s="24"/>
@@ -6008,7 +5984,7 @@
       <c r="E133" s="24"/>
       <c r="F133" s="24"/>
       <c r="G133" s="24"/>
-      <c r="H133" s="60"/>
+      <c r="H133" s="57"/>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B134" s="24"/>
@@ -6017,7 +5993,7 @@
       <c r="E134" s="24"/>
       <c r="F134" s="24"/>
       <c r="G134" s="24"/>
-      <c r="H134" s="60"/>
+      <c r="H134" s="57"/>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B135" s="24"/>
@@ -6026,7 +6002,7 @@
       <c r="E135" s="24"/>
       <c r="F135" s="24"/>
       <c r="G135" s="24"/>
-      <c r="H135" s="60"/>
+      <c r="H135" s="57"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B136" s="24"/>
@@ -6035,7 +6011,7 @@
       <c r="E136" s="24"/>
       <c r="F136" s="24"/>
       <c r="G136" s="24"/>
-      <c r="H136" s="60"/>
+      <c r="H136" s="57"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B137" s="24"/>
@@ -6044,7 +6020,7 @@
       <c r="E137" s="24"/>
       <c r="F137" s="24"/>
       <c r="G137" s="24"/>
-      <c r="H137" s="60"/>
+      <c r="H137" s="57"/>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B138" s="24"/>
@@ -6053,7 +6029,7 @@
       <c r="E138" s="24"/>
       <c r="F138" s="24"/>
       <c r="G138" s="24"/>
-      <c r="H138" s="60"/>
+      <c r="H138" s="57"/>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B139" s="24"/>
@@ -6062,7 +6038,7 @@
       <c r="E139" s="24"/>
       <c r="F139" s="24"/>
       <c r="G139" s="24"/>
-      <c r="H139" s="60"/>
+      <c r="H139" s="57"/>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B140" s="24"/>
@@ -6071,7 +6047,7 @@
       <c r="E140" s="24"/>
       <c r="F140" s="24"/>
       <c r="G140" s="24"/>
-      <c r="H140" s="60"/>
+      <c r="H140" s="57"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B141" s="24"/>
@@ -6080,7 +6056,7 @@
       <c r="E141" s="24"/>
       <c r="F141" s="24"/>
       <c r="G141" s="24"/>
-      <c r="H141" s="60"/>
+      <c r="H141" s="57"/>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B142" s="24"/>
@@ -6089,7 +6065,7 @@
       <c r="E142" s="24"/>
       <c r="F142" s="24"/>
       <c r="G142" s="24"/>
-      <c r="H142" s="60"/>
+      <c r="H142" s="57"/>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B143" s="24"/>
@@ -6098,7 +6074,7 @@
       <c r="E143" s="24"/>
       <c r="F143" s="24"/>
       <c r="G143" s="24"/>
-      <c r="H143" s="60"/>
+      <c r="H143" s="57"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B144" s="24"/>
@@ -6107,7 +6083,7 @@
       <c r="E144" s="24"/>
       <c r="F144" s="24"/>
       <c r="G144" s="24"/>
-      <c r="H144" s="60"/>
+      <c r="H144" s="57"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" s="24"/>
@@ -6116,7 +6092,7 @@
       <c r="E145" s="24"/>
       <c r="F145" s="24"/>
       <c r="G145" s="24"/>
-      <c r="H145" s="60"/>
+      <c r="H145" s="57"/>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B146" s="24"/>
@@ -6125,7 +6101,7 @@
       <c r="E146" s="24"/>
       <c r="F146" s="24"/>
       <c r="G146" s="24"/>
-      <c r="H146" s="60"/>
+      <c r="H146" s="57"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" s="24"/>
@@ -6134,7 +6110,7 @@
       <c r="E147" s="24"/>
       <c r="F147" s="24"/>
       <c r="G147" s="24"/>
-      <c r="H147" s="60"/>
+      <c r="H147" s="57"/>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="24"/>
@@ -6143,7 +6119,7 @@
       <c r="E148" s="24"/>
       <c r="F148" s="24"/>
       <c r="G148" s="24"/>
-      <c r="H148" s="60"/>
+      <c r="H148" s="57"/>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B149" s="24"/>
@@ -6152,7 +6128,7 @@
       <c r="E149" s="24"/>
       <c r="F149" s="24"/>
       <c r="G149" s="24"/>
-      <c r="H149" s="60"/>
+      <c r="H149" s="57"/>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B150" s="24"/>
@@ -6161,7 +6137,7 @@
       <c r="E150" s="24"/>
       <c r="F150" s="24"/>
       <c r="G150" s="24"/>
-      <c r="H150" s="60"/>
+      <c r="H150" s="57"/>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" s="24"/>
@@ -6170,7 +6146,7 @@
       <c r="E151" s="24"/>
       <c r="F151" s="24"/>
       <c r="G151" s="24"/>
-      <c r="H151" s="60"/>
+      <c r="H151" s="57"/>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="24"/>
@@ -6179,7 +6155,7 @@
       <c r="E152" s="24"/>
       <c r="F152" s="24"/>
       <c r="G152" s="24"/>
-      <c r="H152" s="60"/>
+      <c r="H152" s="57"/>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B153" s="24"/>
@@ -6188,7 +6164,7 @@
       <c r="E153" s="24"/>
       <c r="F153" s="24"/>
       <c r="G153" s="24"/>
-      <c r="H153" s="60"/>
+      <c r="H153" s="57"/>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" s="24"/>
@@ -6197,7 +6173,7 @@
       <c r="E154" s="24"/>
       <c r="F154" s="24"/>
       <c r="G154" s="24"/>
-      <c r="H154" s="60"/>
+      <c r="H154" s="57"/>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B155" s="24"/>
@@ -6206,7 +6182,7 @@
       <c r="E155" s="24"/>
       <c r="F155" s="24"/>
       <c r="G155" s="24"/>
-      <c r="H155" s="60"/>
+      <c r="H155" s="57"/>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="24"/>
@@ -6215,7 +6191,7 @@
       <c r="E156" s="24"/>
       <c r="F156" s="24"/>
       <c r="G156" s="24"/>
-      <c r="H156" s="60"/>
+      <c r="H156" s="57"/>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" s="24"/>
@@ -6224,7 +6200,7 @@
       <c r="E157" s="24"/>
       <c r="F157" s="24"/>
       <c r="G157" s="24"/>
-      <c r="H157" s="60"/>
+      <c r="H157" s="57"/>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B158" s="24"/>
@@ -6233,7 +6209,7 @@
       <c r="E158" s="24"/>
       <c r="F158" s="24"/>
       <c r="G158" s="24"/>
-      <c r="H158" s="60"/>
+      <c r="H158" s="57"/>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B159" s="24"/>
@@ -6242,7 +6218,7 @@
       <c r="E159" s="24"/>
       <c r="F159" s="24"/>
       <c r="G159" s="24"/>
-      <c r="H159" s="60"/>
+      <c r="H159" s="57"/>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="24"/>
@@ -6251,7 +6227,7 @@
       <c r="E160" s="24"/>
       <c r="F160" s="24"/>
       <c r="G160" s="24"/>
-      <c r="H160" s="60"/>
+      <c r="H160" s="57"/>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B161" s="24"/>
@@ -6260,7 +6236,7 @@
       <c r="E161" s="24"/>
       <c r="F161" s="24"/>
       <c r="G161" s="24"/>
-      <c r="H161" s="60"/>
+      <c r="H161" s="57"/>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B162" s="24"/>
@@ -6269,7 +6245,7 @@
       <c r="E162" s="24"/>
       <c r="F162" s="24"/>
       <c r="G162" s="24"/>
-      <c r="H162" s="60"/>
+      <c r="H162" s="57"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B163" s="24"/>
@@ -6278,7 +6254,7 @@
       <c r="E163" s="24"/>
       <c r="F163" s="24"/>
       <c r="G163" s="24"/>
-      <c r="H163" s="60"/>
+      <c r="H163" s="57"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B164" s="24"/>
@@ -6287,7 +6263,7 @@
       <c r="E164" s="24"/>
       <c r="F164" s="24"/>
       <c r="G164" s="24"/>
-      <c r="H164" s="60"/>
+      <c r="H164" s="57"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B165" s="24"/>
@@ -6296,7 +6272,7 @@
       <c r="E165" s="24"/>
       <c r="F165" s="24"/>
       <c r="G165" s="24"/>
-      <c r="H165" s="60"/>
+      <c r="H165" s="57"/>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B166" s="24"/>
@@ -6305,7 +6281,7 @@
       <c r="E166" s="24"/>
       <c r="F166" s="24"/>
       <c r="G166" s="24"/>
-      <c r="H166" s="60"/>
+      <c r="H166" s="57"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B167" s="24"/>
@@ -6314,7 +6290,7 @@
       <c r="E167" s="24"/>
       <c r="F167" s="24"/>
       <c r="G167" s="24"/>
-      <c r="H167" s="60"/>
+      <c r="H167" s="57"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B168" s="24"/>
@@ -6323,7 +6299,7 @@
       <c r="E168" s="24"/>
       <c r="F168" s="24"/>
       <c r="G168" s="24"/>
-      <c r="H168" s="60"/>
+      <c r="H168" s="57"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B169" s="24"/>
@@ -6332,7 +6308,7 @@
       <c r="E169" s="24"/>
       <c r="F169" s="24"/>
       <c r="G169" s="24"/>
-      <c r="H169" s="60"/>
+      <c r="H169" s="57"/>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B170" s="24"/>
@@ -6341,7 +6317,7 @@
       <c r="E170" s="24"/>
       <c r="F170" s="24"/>
       <c r="G170" s="24"/>
-      <c r="H170" s="60"/>
+      <c r="H170" s="57"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B171" s="24"/>
@@ -6350,7 +6326,7 @@
       <c r="E171" s="24"/>
       <c r="F171" s="24"/>
       <c r="G171" s="24"/>
-      <c r="H171" s="60"/>
+      <c r="H171" s="57"/>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B172" s="24"/>
@@ -6359,7 +6335,7 @@
       <c r="E172" s="24"/>
       <c r="F172" s="24"/>
       <c r="G172" s="24"/>
-      <c r="H172" s="60"/>
+      <c r="H172" s="57"/>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B173" s="24"/>
@@ -6368,7 +6344,7 @@
       <c r="E173" s="24"/>
       <c r="F173" s="24"/>
       <c r="G173" s="24"/>
-      <c r="H173" s="60"/>
+      <c r="H173" s="57"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B174" s="24"/>
@@ -6377,7 +6353,7 @@
       <c r="E174" s="24"/>
       <c r="F174" s="24"/>
       <c r="G174" s="24"/>
-      <c r="H174" s="60"/>
+      <c r="H174" s="57"/>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B175" s="24"/>
@@ -6386,7 +6362,7 @@
       <c r="E175" s="24"/>
       <c r="F175" s="24"/>
       <c r="G175" s="24"/>
-      <c r="H175" s="60"/>
+      <c r="H175" s="57"/>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B176" s="24"/>
@@ -6395,7 +6371,7 @@
       <c r="E176" s="24"/>
       <c r="F176" s="24"/>
       <c r="G176" s="24"/>
-      <c r="H176" s="60"/>
+      <c r="H176" s="57"/>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B177" s="24"/>
@@ -6404,7 +6380,7 @@
       <c r="E177" s="24"/>
       <c r="F177" s="24"/>
       <c r="G177" s="24"/>
-      <c r="H177" s="60"/>
+      <c r="H177" s="57"/>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B178" s="24"/>
@@ -6413,7 +6389,7 @@
       <c r="E178" s="24"/>
       <c r="F178" s="24"/>
       <c r="G178" s="24"/>
-      <c r="H178" s="60"/>
+      <c r="H178" s="57"/>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B179" s="24"/>
@@ -6422,7 +6398,7 @@
       <c r="E179" s="24"/>
       <c r="F179" s="24"/>
       <c r="G179" s="24"/>
-      <c r="H179" s="60"/>
+      <c r="H179" s="57"/>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="24"/>
@@ -6431,7 +6407,7 @@
       <c r="E180" s="24"/>
       <c r="F180" s="24"/>
       <c r="G180" s="24"/>
-      <c r="H180" s="60"/>
+      <c r="H180" s="57"/>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B181" s="24"/>
@@ -6440,7 +6416,7 @@
       <c r="E181" s="24"/>
       <c r="F181" s="24"/>
       <c r="G181" s="24"/>
-      <c r="H181" s="60"/>
+      <c r="H181" s="57"/>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B182" s="24"/>
@@ -6449,7 +6425,7 @@
       <c r="E182" s="24"/>
       <c r="F182" s="24"/>
       <c r="G182" s="24"/>
-      <c r="H182" s="60"/>
+      <c r="H182" s="57"/>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B183" s="24"/>
@@ -6458,7 +6434,7 @@
       <c r="E183" s="24"/>
       <c r="F183" s="24"/>
       <c r="G183" s="24"/>
-      <c r="H183" s="60"/>
+      <c r="H183" s="57"/>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="24"/>
@@ -6467,7 +6443,7 @@
       <c r="E184" s="24"/>
       <c r="F184" s="24"/>
       <c r="G184" s="24"/>
-      <c r="H184" s="60"/>
+      <c r="H184" s="57"/>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B185" s="24"/>
@@ -6476,7 +6452,7 @@
       <c r="E185" s="24"/>
       <c r="F185" s="24"/>
       <c r="G185" s="24"/>
-      <c r="H185" s="60"/>
+      <c r="H185" s="57"/>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B186" s="24"/>
@@ -6485,7 +6461,7 @@
       <c r="E186" s="24"/>
       <c r="F186" s="24"/>
       <c r="G186" s="24"/>
-      <c r="H186" s="60"/>
+      <c r="H186" s="57"/>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B187" s="24"/>
@@ -6494,7 +6470,7 @@
       <c r="E187" s="24"/>
       <c r="F187" s="24"/>
       <c r="G187" s="24"/>
-      <c r="H187" s="60"/>
+      <c r="H187" s="57"/>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" s="24"/>
@@ -6503,7 +6479,7 @@
       <c r="E188" s="24"/>
       <c r="F188" s="24"/>
       <c r="G188" s="24"/>
-      <c r="H188" s="60"/>
+      <c r="H188" s="57"/>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B189" s="24"/>
@@ -6512,7 +6488,7 @@
       <c r="E189" s="24"/>
       <c r="F189" s="24"/>
       <c r="G189" s="24"/>
-      <c r="H189" s="60"/>
+      <c r="H189" s="57"/>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B190" s="24"/>
@@ -6521,7 +6497,7 @@
       <c r="E190" s="24"/>
       <c r="F190" s="24"/>
       <c r="G190" s="24"/>
-      <c r="H190" s="60"/>
+      <c r="H190" s="57"/>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B191" s="24"/>
@@ -6530,7 +6506,7 @@
       <c r="E191" s="24"/>
       <c r="F191" s="24"/>
       <c r="G191" s="24"/>
-      <c r="H191" s="60"/>
+      <c r="H191" s="57"/>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="24"/>
@@ -6539,7 +6515,7 @@
       <c r="E192" s="24"/>
       <c r="F192" s="24"/>
       <c r="G192" s="24"/>
-      <c r="H192" s="60"/>
+      <c r="H192" s="57"/>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B193" s="24"/>
@@ -6548,7 +6524,7 @@
       <c r="E193" s="24"/>
       <c r="F193" s="24"/>
       <c r="G193" s="24"/>
-      <c r="H193" s="60"/>
+      <c r="H193" s="57"/>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B194" s="24"/>
@@ -6557,7 +6533,7 @@
       <c r="E194" s="24"/>
       <c r="F194" s="24"/>
       <c r="G194" s="24"/>
-      <c r="H194" s="60"/>
+      <c r="H194" s="57"/>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B195" s="24"/>
@@ -6566,7 +6542,7 @@
       <c r="E195" s="24"/>
       <c r="F195" s="24"/>
       <c r="G195" s="24"/>
-      <c r="H195" s="60"/>
+      <c r="H195" s="57"/>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B196" s="24"/>
@@ -6575,7 +6551,7 @@
       <c r="E196" s="24"/>
       <c r="F196" s="24"/>
       <c r="G196" s="24"/>
-      <c r="H196" s="60"/>
+      <c r="H196" s="57"/>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B197" s="24"/>
@@ -6584,7 +6560,7 @@
       <c r="E197" s="24"/>
       <c r="F197" s="24"/>
       <c r="G197" s="24"/>
-      <c r="H197" s="60"/>
+      <c r="H197" s="57"/>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B198" s="24"/>
@@ -6593,7 +6569,7 @@
       <c r="E198" s="24"/>
       <c r="F198" s="24"/>
       <c r="G198" s="24"/>
-      <c r="H198" s="60"/>
+      <c r="H198" s="57"/>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B199" s="24"/>
@@ -6602,7 +6578,7 @@
       <c r="E199" s="24"/>
       <c r="F199" s="24"/>
       <c r="G199" s="24"/>
-      <c r="H199" s="60"/>
+      <c r="H199" s="57"/>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B200" s="24"/>
@@ -6611,7 +6587,7 @@
       <c r="E200" s="24"/>
       <c r="F200" s="24"/>
       <c r="G200" s="24"/>
-      <c r="H200" s="60"/>
+      <c r="H200" s="57"/>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B201" s="24"/>
@@ -6620,7 +6596,7 @@
       <c r="E201" s="24"/>
       <c r="F201" s="24"/>
       <c r="G201" s="24"/>
-      <c r="H201" s="60"/>
+      <c r="H201" s="57"/>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B202" s="24"/>
@@ -6629,7 +6605,7 @@
       <c r="E202" s="24"/>
       <c r="F202" s="24"/>
       <c r="G202" s="24"/>
-      <c r="H202" s="60"/>
+      <c r="H202" s="57"/>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B203" s="24"/>
@@ -6638,7 +6614,7 @@
       <c r="E203" s="24"/>
       <c r="F203" s="24"/>
       <c r="G203" s="24"/>
-      <c r="H203" s="60"/>
+      <c r="H203" s="57"/>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B204" s="24"/>
@@ -6647,7 +6623,7 @@
       <c r="E204" s="24"/>
       <c r="F204" s="24"/>
       <c r="G204" s="24"/>
-      <c r="H204" s="60"/>
+      <c r="H204" s="57"/>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B205" s="24"/>
@@ -6656,7 +6632,7 @@
       <c r="E205" s="24"/>
       <c r="F205" s="24"/>
       <c r="G205" s="24"/>
-      <c r="H205" s="60"/>
+      <c r="H205" s="57"/>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B206" s="24"/>
@@ -6665,7 +6641,7 @@
       <c r="E206" s="24"/>
       <c r="F206" s="24"/>
       <c r="G206" s="24"/>
-      <c r="H206" s="60"/>
+      <c r="H206" s="57"/>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B207" s="24"/>
@@ -6674,7 +6650,7 @@
       <c r="E207" s="24"/>
       <c r="F207" s="24"/>
       <c r="G207" s="24"/>
-      <c r="H207" s="60"/>
+      <c r="H207" s="57"/>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B208" s="24"/>
@@ -6683,7 +6659,7 @@
       <c r="E208" s="24"/>
       <c r="F208" s="24"/>
       <c r="G208" s="24"/>
-      <c r="H208" s="60"/>
+      <c r="H208" s="57"/>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B209" s="24"/>
@@ -6692,7 +6668,7 @@
       <c r="E209" s="24"/>
       <c r="F209" s="24"/>
       <c r="G209" s="24"/>
-      <c r="H209" s="60"/>
+      <c r="H209" s="57"/>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B210" s="24"/>
@@ -6701,7 +6677,7 @@
       <c r="E210" s="24"/>
       <c r="F210" s="24"/>
       <c r="G210" s="24"/>
-      <c r="H210" s="60"/>
+      <c r="H210" s="57"/>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B211" s="24"/>
@@ -6710,7 +6686,7 @@
       <c r="E211" s="24"/>
       <c r="F211" s="24"/>
       <c r="G211" s="24"/>
-      <c r="H211" s="60"/>
+      <c r="H211" s="57"/>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B212" s="24"/>
@@ -6719,7 +6695,7 @@
       <c r="E212" s="24"/>
       <c r="F212" s="24"/>
       <c r="G212" s="24"/>
-      <c r="H212" s="60"/>
+      <c r="H212" s="57"/>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B213" s="24"/>
@@ -6728,7 +6704,7 @@
       <c r="E213" s="24"/>
       <c r="F213" s="24"/>
       <c r="G213" s="24"/>
-      <c r="H213" s="60"/>
+      <c r="H213" s="57"/>
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B214" s="24"/>
@@ -6737,7 +6713,7 @@
       <c r="E214" s="24"/>
       <c r="F214" s="24"/>
       <c r="G214" s="24"/>
-      <c r="H214" s="60"/>
+      <c r="H214" s="57"/>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B215" s="24"/>
@@ -6746,7 +6722,7 @@
       <c r="E215" s="24"/>
       <c r="F215" s="24"/>
       <c r="G215" s="24"/>
-      <c r="H215" s="60"/>
+      <c r="H215" s="57"/>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B216" s="24"/>
@@ -6755,7 +6731,7 @@
       <c r="E216" s="24"/>
       <c r="F216" s="24"/>
       <c r="G216" s="24"/>
-      <c r="H216" s="60"/>
+      <c r="H216" s="57"/>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B217" s="24"/>
@@ -6764,7 +6740,7 @@
       <c r="E217" s="24"/>
       <c r="F217" s="24"/>
       <c r="G217" s="24"/>
-      <c r="H217" s="60"/>
+      <c r="H217" s="57"/>
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B218" s="24"/>
@@ -6773,7 +6749,7 @@
       <c r="E218" s="24"/>
       <c r="F218" s="24"/>
       <c r="G218" s="24"/>
-      <c r="H218" s="60"/>
+      <c r="H218" s="57"/>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B219" s="24"/>
@@ -6782,7 +6758,7 @@
       <c r="E219" s="24"/>
       <c r="F219" s="24"/>
       <c r="G219" s="24"/>
-      <c r="H219" s="60"/>
+      <c r="H219" s="57"/>
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B220" s="24"/>
@@ -6791,7 +6767,7 @@
       <c r="E220" s="24"/>
       <c r="F220" s="24"/>
       <c r="G220" s="24"/>
-      <c r="H220" s="60"/>
+      <c r="H220" s="57"/>
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B221" s="24"/>
@@ -6800,7 +6776,7 @@
       <c r="E221" s="24"/>
       <c r="F221" s="24"/>
       <c r="G221" s="24"/>
-      <c r="H221" s="60"/>
+      <c r="H221" s="57"/>
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B222" s="24"/>
@@ -6809,7 +6785,7 @@
       <c r="E222" s="24"/>
       <c r="F222" s="24"/>
       <c r="G222" s="24"/>
-      <c r="H222" s="60"/>
+      <c r="H222" s="57"/>
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B223" s="24"/>
@@ -6818,7 +6794,7 @@
       <c r="E223" s="24"/>
       <c r="F223" s="24"/>
       <c r="G223" s="24"/>
-      <c r="H223" s="60"/>
+      <c r="H223" s="57"/>
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B224" s="24"/>
@@ -6827,7 +6803,7 @@
       <c r="E224" s="24"/>
       <c r="F224" s="24"/>
       <c r="G224" s="24"/>
-      <c r="H224" s="60"/>
+      <c r="H224" s="57"/>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B225" s="24"/>
@@ -6836,7 +6812,7 @@
       <c r="E225" s="24"/>
       <c r="F225" s="24"/>
       <c r="G225" s="24"/>
-      <c r="H225" s="60"/>
+      <c r="H225" s="57"/>
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B226" s="24"/>
@@ -6845,7 +6821,7 @@
       <c r="E226" s="24"/>
       <c r="F226" s="24"/>
       <c r="G226" s="24"/>
-      <c r="H226" s="60"/>
+      <c r="H226" s="57"/>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B227" s="24"/>
@@ -6854,7 +6830,7 @@
       <c r="E227" s="24"/>
       <c r="F227" s="24"/>
       <c r="G227" s="24"/>
-      <c r="H227" s="60"/>
+      <c r="H227" s="57"/>
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B228" s="24"/>
@@ -6863,7 +6839,7 @@
       <c r="E228" s="24"/>
       <c r="F228" s="24"/>
       <c r="G228" s="24"/>
-      <c r="H228" s="60"/>
+      <c r="H228" s="57"/>
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B229" s="24"/>
@@ -6872,7 +6848,7 @@
       <c r="E229" s="24"/>
       <c r="F229" s="24"/>
       <c r="G229" s="24"/>
-      <c r="H229" s="60"/>
+      <c r="H229" s="57"/>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B230" s="24"/>
@@ -6881,7 +6857,7 @@
       <c r="E230" s="24"/>
       <c r="F230" s="24"/>
       <c r="G230" s="24"/>
-      <c r="H230" s="60"/>
+      <c r="H230" s="57"/>
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B231" s="24"/>
@@ -6890,7 +6866,7 @@
       <c r="E231" s="24"/>
       <c r="F231" s="24"/>
       <c r="G231" s="24"/>
-      <c r="H231" s="60"/>
+      <c r="H231" s="57"/>
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B232" s="24"/>
@@ -6899,7 +6875,7 @@
       <c r="E232" s="24"/>
       <c r="F232" s="24"/>
       <c r="G232" s="24"/>
-      <c r="H232" s="60"/>
+      <c r="H232" s="57"/>
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B233" s="24"/>
@@ -6908,7 +6884,7 @@
       <c r="E233" s="24"/>
       <c r="F233" s="24"/>
       <c r="G233" s="24"/>
-      <c r="H233" s="60"/>
+      <c r="H233" s="57"/>
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B234" s="24"/>
@@ -6917,7 +6893,7 @@
       <c r="E234" s="24"/>
       <c r="F234" s="24"/>
       <c r="G234" s="24"/>
-      <c r="H234" s="60"/>
+      <c r="H234" s="57"/>
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B235" s="24"/>
@@ -6926,7 +6902,7 @@
       <c r="E235" s="24"/>
       <c r="F235" s="24"/>
       <c r="G235" s="24"/>
-      <c r="H235" s="60"/>
+      <c r="H235" s="57"/>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B236" s="24"/>
@@ -6935,7 +6911,7 @@
       <c r="E236" s="24"/>
       <c r="F236" s="24"/>
       <c r="G236" s="24"/>
-      <c r="H236" s="60"/>
+      <c r="H236" s="57"/>
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B237" s="24"/>
@@ -6944,7 +6920,7 @@
       <c r="E237" s="24"/>
       <c r="F237" s="24"/>
       <c r="G237" s="24"/>
-      <c r="H237" s="60"/>
+      <c r="H237" s="57"/>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B238" s="24"/>
@@ -6953,7 +6929,7 @@
       <c r="E238" s="24"/>
       <c r="F238" s="24"/>
       <c r="G238" s="24"/>
-      <c r="H238" s="60"/>
+      <c r="H238" s="57"/>
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B239" s="24"/>
@@ -6962,7 +6938,7 @@
       <c r="E239" s="24"/>
       <c r="F239" s="24"/>
       <c r="G239" s="24"/>
-      <c r="H239" s="60"/>
+      <c r="H239" s="57"/>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B240" s="24"/>
@@ -6971,7 +6947,7 @@
       <c r="E240" s="24"/>
       <c r="F240" s="24"/>
       <c r="G240" s="24"/>
-      <c r="H240" s="60"/>
+      <c r="H240" s="57"/>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B241" s="24"/>
@@ -6980,7 +6956,7 @@
       <c r="E241" s="24"/>
       <c r="F241" s="24"/>
       <c r="G241" s="24"/>
-      <c r="H241" s="60"/>
+      <c r="H241" s="57"/>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B242" s="24"/>
@@ -6989,7 +6965,7 @@
       <c r="E242" s="24"/>
       <c r="F242" s="24"/>
       <c r="G242" s="24"/>
-      <c r="H242" s="60"/>
+      <c r="H242" s="57"/>
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B243" s="24"/>
@@ -6998,7 +6974,7 @@
       <c r="E243" s="24"/>
       <c r="F243" s="24"/>
       <c r="G243" s="24"/>
-      <c r="H243" s="60"/>
+      <c r="H243" s="57"/>
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B244" s="24"/>
@@ -7007,7 +6983,7 @@
       <c r="E244" s="24"/>
       <c r="F244" s="24"/>
       <c r="G244" s="24"/>
-      <c r="H244" s="60"/>
+      <c r="H244" s="57"/>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B245" s="24"/>
@@ -7016,7 +6992,7 @@
       <c r="E245" s="24"/>
       <c r="F245" s="24"/>
       <c r="G245" s="24"/>
-      <c r="H245" s="60"/>
+      <c r="H245" s="57"/>
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B246" s="24"/>
@@ -7025,7 +7001,7 @@
       <c r="E246" s="24"/>
       <c r="F246" s="24"/>
       <c r="G246" s="24"/>
-      <c r="H246" s="60"/>
+      <c r="H246" s="57"/>
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B247" s="24"/>
@@ -7034,7 +7010,7 @@
       <c r="E247" s="24"/>
       <c r="F247" s="24"/>
       <c r="G247" s="24"/>
-      <c r="H247" s="60"/>
+      <c r="H247" s="57"/>
     </row>
     <row r="248" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B248" s="24"/>
@@ -7043,7 +7019,7 @@
       <c r="E248" s="24"/>
       <c r="F248" s="24"/>
       <c r="G248" s="24"/>
-      <c r="H248" s="60"/>
+      <c r="H248" s="57"/>
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B249" s="24"/>
@@ -7052,7 +7028,7 @@
       <c r="E249" s="24"/>
       <c r="F249" s="24"/>
       <c r="G249" s="24"/>
-      <c r="H249" s="60"/>
+      <c r="H249" s="57"/>
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B250" s="24"/>
@@ -7061,7 +7037,7 @@
       <c r="E250" s="24"/>
       <c r="F250" s="24"/>
       <c r="G250" s="24"/>
-      <c r="H250" s="60"/>
+      <c r="H250" s="57"/>
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B251" s="24"/>
@@ -7070,7 +7046,7 @@
       <c r="E251" s="24"/>
       <c r="F251" s="24"/>
       <c r="G251" s="24"/>
-      <c r="H251" s="60"/>
+      <c r="H251" s="57"/>
     </row>
     <row r="252" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B252" s="24"/>
@@ -7079,7 +7055,7 @@
       <c r="E252" s="24"/>
       <c r="F252" s="24"/>
       <c r="G252" s="24"/>
-      <c r="H252" s="60"/>
+      <c r="H252" s="57"/>
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B253" s="24"/>
@@ -7088,7 +7064,7 @@
       <c r="E253" s="24"/>
       <c r="F253" s="24"/>
       <c r="G253" s="24"/>
-      <c r="H253" s="60"/>
+      <c r="H253" s="57"/>
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B254" s="24"/>
@@ -7097,7 +7073,7 @@
       <c r="E254" s="24"/>
       <c r="F254" s="24"/>
       <c r="G254" s="24"/>
-      <c r="H254" s="60"/>
+      <c r="H254" s="57"/>
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B255" s="24"/>
@@ -7106,7 +7082,7 @@
       <c r="E255" s="24"/>
       <c r="F255" s="24"/>
       <c r="G255" s="24"/>
-      <c r="H255" s="60"/>
+      <c r="H255" s="57"/>
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B256" s="24"/>
@@ -7115,7 +7091,7 @@
       <c r="E256" s="24"/>
       <c r="F256" s="24"/>
       <c r="G256" s="24"/>
-      <c r="H256" s="60"/>
+      <c r="H256" s="57"/>
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B257" s="24"/>
@@ -7124,7 +7100,7 @@
       <c r="E257" s="24"/>
       <c r="F257" s="24"/>
       <c r="G257" s="24"/>
-      <c r="H257" s="60"/>
+      <c r="H257" s="57"/>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B258" s="24"/>
@@ -7133,7 +7109,7 @@
       <c r="E258" s="24"/>
       <c r="F258" s="24"/>
       <c r="G258" s="24"/>
-      <c r="H258" s="60"/>
+      <c r="H258" s="57"/>
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B259" s="24"/>
@@ -7142,7 +7118,7 @@
       <c r="E259" s="24"/>
       <c r="F259" s="24"/>
       <c r="G259" s="24"/>
-      <c r="H259" s="60"/>
+      <c r="H259" s="57"/>
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B260" s="24"/>
@@ -7151,7 +7127,7 @@
       <c r="E260" s="24"/>
       <c r="F260" s="24"/>
       <c r="G260" s="24"/>
-      <c r="H260" s="60"/>
+      <c r="H260" s="57"/>
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B261" s="24"/>
@@ -7160,7 +7136,7 @@
       <c r="E261" s="24"/>
       <c r="F261" s="24"/>
       <c r="G261" s="24"/>
-      <c r="H261" s="60"/>
+      <c r="H261" s="57"/>
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B262" s="24"/>
@@ -7169,7 +7145,7 @@
       <c r="E262" s="24"/>
       <c r="F262" s="24"/>
       <c r="G262" s="24"/>
-      <c r="H262" s="60"/>
+      <c r="H262" s="57"/>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B263" s="24"/>
@@ -7178,7 +7154,7 @@
       <c r="E263" s="24"/>
       <c r="F263" s="24"/>
       <c r="G263" s="24"/>
-      <c r="H263" s="60"/>
+      <c r="H263" s="57"/>
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B264" s="24"/>
@@ -7187,7 +7163,7 @@
       <c r="E264" s="24"/>
       <c r="F264" s="24"/>
       <c r="G264" s="24"/>
-      <c r="H264" s="60"/>
+      <c r="H264" s="57"/>
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B265" s="24"/>
@@ -7196,7 +7172,7 @@
       <c r="E265" s="24"/>
       <c r="F265" s="24"/>
       <c r="G265" s="24"/>
-      <c r="H265" s="60"/>
+      <c r="H265" s="57"/>
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B266" s="24"/>
@@ -7205,7 +7181,7 @@
       <c r="E266" s="24"/>
       <c r="F266" s="24"/>
       <c r="G266" s="24"/>
-      <c r="H266" s="60"/>
+      <c r="H266" s="57"/>
     </row>
     <row r="267" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B267" s="24"/>
@@ -7214,7 +7190,7 @@
       <c r="E267" s="24"/>
       <c r="F267" s="24"/>
       <c r="G267" s="24"/>
-      <c r="H267" s="60"/>
+      <c r="H267" s="57"/>
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B268" s="24"/>
@@ -7223,7 +7199,7 @@
       <c r="E268" s="24"/>
       <c r="F268" s="24"/>
       <c r="G268" s="24"/>
-      <c r="H268" s="60"/>
+      <c r="H268" s="57"/>
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B269" s="24"/>
@@ -7232,7 +7208,7 @@
       <c r="E269" s="24"/>
       <c r="F269" s="24"/>
       <c r="G269" s="24"/>
-      <c r="H269" s="60"/>
+      <c r="H269" s="57"/>
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B270" s="24"/>
@@ -7241,7 +7217,7 @@
       <c r="E270" s="24"/>
       <c r="F270" s="24"/>
       <c r="G270" s="24"/>
-      <c r="H270" s="60"/>
+      <c r="H270" s="57"/>
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B271" s="24"/>
@@ -7250,7 +7226,7 @@
       <c r="E271" s="24"/>
       <c r="F271" s="24"/>
       <c r="G271" s="24"/>
-      <c r="H271" s="60"/>
+      <c r="H271" s="57"/>
     </row>
     <row r="272" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B272" s="24"/>
@@ -7259,7 +7235,7 @@
       <c r="E272" s="24"/>
       <c r="F272" s="24"/>
       <c r="G272" s="24"/>
-      <c r="H272" s="60"/>
+      <c r="H272" s="57"/>
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B273" s="24"/>
@@ -7268,7 +7244,7 @@
       <c r="E273" s="24"/>
       <c r="F273" s="24"/>
       <c r="G273" s="24"/>
-      <c r="H273" s="60"/>
+      <c r="H273" s="57"/>
     </row>
     <row r="274" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B274" s="24"/>
@@ -7277,7 +7253,7 @@
       <c r="E274" s="24"/>
       <c r="F274" s="24"/>
       <c r="G274" s="24"/>
-      <c r="H274" s="60"/>
+      <c r="H274" s="57"/>
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B275" s="24"/>
@@ -7286,7 +7262,7 @@
       <c r="E275" s="24"/>
       <c r="F275" s="24"/>
       <c r="G275" s="24"/>
-      <c r="H275" s="60"/>
+      <c r="H275" s="57"/>
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B276" s="24"/>
@@ -7295,7 +7271,7 @@
       <c r="E276" s="24"/>
       <c r="F276" s="24"/>
       <c r="G276" s="24"/>
-      <c r="H276" s="60"/>
+      <c r="H276" s="57"/>
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B277" s="24"/>
@@ -7304,7 +7280,7 @@
       <c r="E277" s="24"/>
       <c r="F277" s="24"/>
       <c r="G277" s="24"/>
-      <c r="H277" s="60"/>
+      <c r="H277" s="57"/>
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B278" s="24"/>
@@ -7313,7 +7289,7 @@
       <c r="E278" s="24"/>
       <c r="F278" s="24"/>
       <c r="G278" s="24"/>
-      <c r="H278" s="60"/>
+      <c r="H278" s="57"/>
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B279" s="24"/>
@@ -7322,7 +7298,7 @@
       <c r="E279" s="24"/>
       <c r="F279" s="24"/>
       <c r="G279" s="24"/>
-      <c r="H279" s="60"/>
+      <c r="H279" s="57"/>
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B280" s="24"/>
@@ -7331,7 +7307,7 @@
       <c r="E280" s="24"/>
       <c r="F280" s="24"/>
       <c r="G280" s="24"/>
-      <c r="H280" s="60"/>
+      <c r="H280" s="57"/>
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B281" s="24"/>
@@ -7340,7 +7316,7 @@
       <c r="E281" s="24"/>
       <c r="F281" s="24"/>
       <c r="G281" s="24"/>
-      <c r="H281" s="60"/>
+      <c r="H281" s="57"/>
     </row>
     <row r="282" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B282" s="24"/>
@@ -7349,7 +7325,7 @@
       <c r="E282" s="24"/>
       <c r="F282" s="24"/>
       <c r="G282" s="24"/>
-      <c r="H282" s="60"/>
+      <c r="H282" s="57"/>
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B283" s="24"/>
@@ -7358,7 +7334,7 @@
       <c r="E283" s="24"/>
       <c r="F283" s="24"/>
       <c r="G283" s="24"/>
-      <c r="H283" s="60"/>
+      <c r="H283" s="57"/>
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B284" s="24"/>
@@ -7367,7 +7343,7 @@
       <c r="E284" s="24"/>
       <c r="F284" s="24"/>
       <c r="G284" s="24"/>
-      <c r="H284" s="60"/>
+      <c r="H284" s="57"/>
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B285" s="24"/>
@@ -7376,7 +7352,7 @@
       <c r="E285" s="24"/>
       <c r="F285" s="24"/>
       <c r="G285" s="24"/>
-      <c r="H285" s="60"/>
+      <c r="H285" s="57"/>
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B286" s="24"/>
@@ -7385,7 +7361,7 @@
       <c r="E286" s="24"/>
       <c r="F286" s="24"/>
       <c r="G286" s="24"/>
-      <c r="H286" s="60"/>
+      <c r="H286" s="57"/>
     </row>
     <row r="287" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B287" s="24"/>
@@ -7394,7 +7370,7 @@
       <c r="E287" s="24"/>
       <c r="F287" s="24"/>
       <c r="G287" s="24"/>
-      <c r="H287" s="60"/>
+      <c r="H287" s="57"/>
     </row>
     <row r="288" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B288" s="24"/>
@@ -7403,7 +7379,7 @@
       <c r="E288" s="24"/>
       <c r="F288" s="24"/>
       <c r="G288" s="24"/>
-      <c r="H288" s="60"/>
+      <c r="H288" s="57"/>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B289" s="24"/>
@@ -7412,7 +7388,7 @@
       <c r="E289" s="24"/>
       <c r="F289" s="24"/>
       <c r="G289" s="24"/>
-      <c r="H289" s="60"/>
+      <c r="H289" s="57"/>
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B290" s="24"/>
@@ -7421,7 +7397,7 @@
       <c r="E290" s="24"/>
       <c r="F290" s="24"/>
       <c r="G290" s="24"/>
-      <c r="H290" s="60"/>
+      <c r="H290" s="57"/>
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B291" s="24"/>
@@ -7430,7 +7406,7 @@
       <c r="E291" s="24"/>
       <c r="F291" s="24"/>
       <c r="G291" s="24"/>
-      <c r="H291" s="60"/>
+      <c r="H291" s="57"/>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B292" s="24"/>
@@ -7439,7 +7415,7 @@
       <c r="E292" s="24"/>
       <c r="F292" s="24"/>
       <c r="G292" s="24"/>
-      <c r="H292" s="60"/>
+      <c r="H292" s="57"/>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B293" s="24"/>
@@ -7448,7 +7424,7 @@
       <c r="E293" s="24"/>
       <c r="F293" s="24"/>
       <c r="G293" s="24"/>
-      <c r="H293" s="60"/>
+      <c r="H293" s="57"/>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B294" s="24"/>
@@ -7457,7 +7433,7 @@
       <c r="E294" s="24"/>
       <c r="F294" s="24"/>
       <c r="G294" s="24"/>
-      <c r="H294" s="60"/>
+      <c r="H294" s="57"/>
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B295" s="24"/>
@@ -7466,7 +7442,7 @@
       <c r="E295" s="24"/>
       <c r="F295" s="24"/>
       <c r="G295" s="24"/>
-      <c r="H295" s="60"/>
+      <c r="H295" s="57"/>
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B296" s="24"/>
@@ -7475,7 +7451,7 @@
       <c r="E296" s="24"/>
       <c r="F296" s="24"/>
       <c r="G296" s="24"/>
-      <c r="H296" s="60"/>
+      <c r="H296" s="57"/>
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B297" s="24"/>
@@ -7484,7 +7460,7 @@
       <c r="E297" s="24"/>
       <c r="F297" s="24"/>
       <c r="G297" s="24"/>
-      <c r="H297" s="60"/>
+      <c r="H297" s="57"/>
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B298" s="24"/>
@@ -7493,7 +7469,7 @@
       <c r="E298" s="24"/>
       <c r="F298" s="24"/>
       <c r="G298" s="24"/>
-      <c r="H298" s="60"/>
+      <c r="H298" s="57"/>
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B299" s="24"/>
@@ -7502,7 +7478,7 @@
       <c r="E299" s="24"/>
       <c r="F299" s="24"/>
       <c r="G299" s="24"/>
-      <c r="H299" s="60"/>
+      <c r="H299" s="57"/>
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B300" s="24"/>
@@ -7511,7 +7487,7 @@
       <c r="E300" s="24"/>
       <c r="F300" s="24"/>
       <c r="G300" s="24"/>
-      <c r="H300" s="60"/>
+      <c r="H300" s="57"/>
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B301" s="24"/>
@@ -7520,7 +7496,7 @@
       <c r="E301" s="24"/>
       <c r="F301" s="24"/>
       <c r="G301" s="24"/>
-      <c r="H301" s="60"/>
+      <c r="H301" s="57"/>
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B302" s="24"/>
@@ -7529,7 +7505,7 @@
       <c r="E302" s="24"/>
       <c r="F302" s="24"/>
       <c r="G302" s="24"/>
-      <c r="H302" s="60"/>
+      <c r="H302" s="57"/>
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B303" s="24"/>
@@ -7538,7 +7514,7 @@
       <c r="E303" s="24"/>
       <c r="F303" s="24"/>
       <c r="G303" s="24"/>
-      <c r="H303" s="60"/>
+      <c r="H303" s="57"/>
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B304" s="24"/>
@@ -7547,7 +7523,7 @@
       <c r="E304" s="24"/>
       <c r="F304" s="24"/>
       <c r="G304" s="24"/>
-      <c r="H304" s="60"/>
+      <c r="H304" s="57"/>
     </row>
     <row r="305" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B305" s="24"/>
@@ -7556,7 +7532,7 @@
       <c r="E305" s="24"/>
       <c r="F305" s="24"/>
       <c r="G305" s="24"/>
-      <c r="H305" s="60"/>
+      <c r="H305" s="57"/>
     </row>
     <row r="306" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B306" s="24"/>
@@ -7565,7 +7541,7 @@
       <c r="E306" s="24"/>
       <c r="F306" s="24"/>
       <c r="G306" s="24"/>
-      <c r="H306" s="60"/>
+      <c r="H306" s="57"/>
     </row>
     <row r="307" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B307" s="24"/>
@@ -7574,7 +7550,7 @@
       <c r="E307" s="24"/>
       <c r="F307" s="24"/>
       <c r="G307" s="24"/>
-      <c r="H307" s="60"/>
+      <c r="H307" s="57"/>
     </row>
     <row r="308" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B308" s="24"/>
@@ -7583,7 +7559,7 @@
       <c r="E308" s="24"/>
       <c r="F308" s="24"/>
       <c r="G308" s="24"/>
-      <c r="H308" s="60"/>
+      <c r="H308" s="57"/>
     </row>
     <row r="309" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B309" s="24"/>
@@ -7592,7 +7568,7 @@
       <c r="E309" s="24"/>
       <c r="F309" s="24"/>
       <c r="G309" s="24"/>
-      <c r="H309" s="60"/>
+      <c r="H309" s="57"/>
     </row>
     <row r="310" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B310" s="24"/>
@@ -7601,7 +7577,7 @@
       <c r="E310" s="24"/>
       <c r="F310" s="24"/>
       <c r="G310" s="24"/>
-      <c r="H310" s="60"/>
+      <c r="H310" s="57"/>
     </row>
     <row r="311" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B311" s="24"/>
@@ -7610,7 +7586,7 @@
       <c r="E311" s="24"/>
       <c r="F311" s="24"/>
       <c r="G311" s="24"/>
-      <c r="H311" s="60"/>
+      <c r="H311" s="57"/>
     </row>
     <row r="312" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B312" s="24"/>
@@ -7619,7 +7595,7 @@
       <c r="E312" s="24"/>
       <c r="F312" s="24"/>
       <c r="G312" s="24"/>
-      <c r="H312" s="60"/>
+      <c r="H312" s="57"/>
     </row>
     <row r="313" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B313" s="24"/>
@@ -7628,7 +7604,7 @@
       <c r="E313" s="24"/>
       <c r="F313" s="24"/>
       <c r="G313" s="24"/>
-      <c r="H313" s="60"/>
+      <c r="H313" s="57"/>
     </row>
     <row r="314" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B314" s="24"/>
@@ -7637,7 +7613,7 @@
       <c r="E314" s="24"/>
       <c r="F314" s="24"/>
       <c r="G314" s="24"/>
-      <c r="H314" s="60"/>
+      <c r="H314" s="57"/>
     </row>
     <row r="315" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B315" s="24"/>
@@ -7646,7 +7622,7 @@
       <c r="E315" s="24"/>
       <c r="F315" s="24"/>
       <c r="G315" s="24"/>
-      <c r="H315" s="60"/>
+      <c r="H315" s="57"/>
     </row>
     <row r="316" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B316" s="24"/>
@@ -7655,7 +7631,7 @@
       <c r="E316" s="24"/>
       <c r="F316" s="24"/>
       <c r="G316" s="24"/>
-      <c r="H316" s="60"/>
+      <c r="H316" s="57"/>
     </row>
     <row r="317" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B317" s="24"/>
@@ -7664,7 +7640,7 @@
       <c r="E317" s="24"/>
       <c r="F317" s="24"/>
       <c r="G317" s="24"/>
-      <c r="H317" s="60"/>
+      <c r="H317" s="57"/>
     </row>
     <row r="318" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B318" s="24"/>
@@ -7673,7 +7649,7 @@
       <c r="E318" s="24"/>
       <c r="F318" s="24"/>
       <c r="G318" s="24"/>
-      <c r="H318" s="60"/>
+      <c r="H318" s="57"/>
     </row>
     <row r="319" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B319" s="24"/>
@@ -7682,7 +7658,7 @@
       <c r="E319" s="24"/>
       <c r="F319" s="24"/>
       <c r="G319" s="24"/>
-      <c r="H319" s="60"/>
+      <c r="H319" s="57"/>
     </row>
     <row r="320" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B320" s="24"/>
@@ -7691,7 +7667,7 @@
       <c r="E320" s="24"/>
       <c r="F320" s="24"/>
       <c r="G320" s="24"/>
-      <c r="H320" s="60"/>
+      <c r="H320" s="57"/>
     </row>
     <row r="321" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B321" s="24"/>
@@ -7700,7 +7676,7 @@
       <c r="E321" s="24"/>
       <c r="F321" s="24"/>
       <c r="G321" s="24"/>
-      <c r="H321" s="60"/>
+      <c r="H321" s="57"/>
     </row>
     <row r="322" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B322" s="24"/>
@@ -7709,7 +7685,7 @@
       <c r="E322" s="24"/>
       <c r="F322" s="24"/>
       <c r="G322" s="24"/>
-      <c r="H322" s="60"/>
+      <c r="H322" s="57"/>
     </row>
     <row r="323" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B323" s="24"/>
@@ -7718,7 +7694,7 @@
       <c r="E323" s="24"/>
       <c r="F323" s="24"/>
       <c r="G323" s="24"/>
-      <c r="H323" s="60"/>
+      <c r="H323" s="57"/>
     </row>
     <row r="324" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B324" s="24"/>
@@ -7727,7 +7703,7 @@
       <c r="E324" s="24"/>
       <c r="F324" s="24"/>
       <c r="G324" s="24"/>
-      <c r="H324" s="60"/>
+      <c r="H324" s="57"/>
     </row>
     <row r="325" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B325" s="24"/>
@@ -7736,7 +7712,7 @@
       <c r="E325" s="24"/>
       <c r="F325" s="24"/>
       <c r="G325" s="24"/>
-      <c r="H325" s="60"/>
+      <c r="H325" s="57"/>
     </row>
     <row r="326" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B326" s="24"/>
@@ -7745,7 +7721,7 @@
       <c r="E326" s="24"/>
       <c r="F326" s="24"/>
       <c r="G326" s="24"/>
-      <c r="H326" s="60"/>
+      <c r="H326" s="57"/>
     </row>
     <row r="327" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B327" s="24"/>
@@ -7754,7 +7730,7 @@
       <c r="E327" s="24"/>
       <c r="F327" s="24"/>
       <c r="G327" s="24"/>
-      <c r="H327" s="60"/>
+      <c r="H327" s="57"/>
     </row>
     <row r="328" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B328" s="24"/>
@@ -7763,7 +7739,7 @@
       <c r="E328" s="24"/>
       <c r="F328" s="24"/>
       <c r="G328" s="24"/>
-      <c r="H328" s="60"/>
+      <c r="H328" s="57"/>
     </row>
     <row r="329" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B329" s="24"/>
@@ -7772,7 +7748,7 @@
       <c r="E329" s="24"/>
       <c r="F329" s="24"/>
       <c r="G329" s="24"/>
-      <c r="H329" s="60"/>
+      <c r="H329" s="57"/>
     </row>
     <row r="330" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B330" s="24"/>
@@ -7781,7 +7757,7 @@
       <c r="E330" s="24"/>
       <c r="F330" s="24"/>
       <c r="G330" s="24"/>
-      <c r="H330" s="60"/>
+      <c r="H330" s="57"/>
     </row>
     <row r="331" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B331" s="24"/>
@@ -7790,7 +7766,7 @@
       <c r="E331" s="24"/>
       <c r="F331" s="24"/>
       <c r="G331" s="24"/>
-      <c r="H331" s="60"/>
+      <c r="H331" s="57"/>
     </row>
     <row r="332" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B332" s="24"/>
@@ -7799,7 +7775,7 @@
       <c r="E332" s="24"/>
       <c r="F332" s="24"/>
       <c r="G332" s="24"/>
-      <c r="H332" s="60"/>
+      <c r="H332" s="57"/>
     </row>
     <row r="333" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B333" s="24"/>
@@ -7808,7 +7784,7 @@
       <c r="E333" s="24"/>
       <c r="F333" s="24"/>
       <c r="G333" s="24"/>
-      <c r="H333" s="60"/>
+      <c r="H333" s="57"/>
     </row>
     <row r="334" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B334" s="24"/>
@@ -7817,7 +7793,7 @@
       <c r="E334" s="24"/>
       <c r="F334" s="24"/>
       <c r="G334" s="24"/>
-      <c r="H334" s="60"/>
+      <c r="H334" s="57"/>
     </row>
     <row r="335" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B335" s="24"/>
@@ -7826,7 +7802,7 @@
       <c r="E335" s="24"/>
       <c r="F335" s="24"/>
       <c r="G335" s="24"/>
-      <c r="H335" s="60"/>
+      <c r="H335" s="57"/>
     </row>
     <row r="336" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B336" s="24"/>
@@ -7835,7 +7811,7 @@
       <c r="E336" s="24"/>
       <c r="F336" s="24"/>
       <c r="G336" s="24"/>
-      <c r="H336" s="60"/>
+      <c r="H336" s="57"/>
     </row>
     <row r="337" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B337" s="24"/>
@@ -7844,7 +7820,7 @@
       <c r="E337" s="24"/>
       <c r="F337" s="24"/>
       <c r="G337" s="24"/>
-      <c r="H337" s="60"/>
+      <c r="H337" s="57"/>
     </row>
     <row r="338" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B338" s="24"/>
@@ -7853,7 +7829,7 @@
       <c r="E338" s="24"/>
       <c r="F338" s="24"/>
       <c r="G338" s="24"/>
-      <c r="H338" s="60"/>
+      <c r="H338" s="57"/>
     </row>
     <row r="339" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B339" s="24"/>
@@ -7862,7 +7838,7 @@
       <c r="E339" s="24"/>
       <c r="F339" s="24"/>
       <c r="G339" s="24"/>
-      <c r="H339" s="60"/>
+      <c r="H339" s="57"/>
     </row>
     <row r="340" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B340" s="24"/>
@@ -7871,7 +7847,7 @@
       <c r="E340" s="24"/>
       <c r="F340" s="24"/>
       <c r="G340" s="24"/>
-      <c r="H340" s="60"/>
+      <c r="H340" s="57"/>
     </row>
     <row r="341" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B341" s="24"/>
@@ -7880,7 +7856,7 @@
       <c r="E341" s="24"/>
       <c r="F341" s="24"/>
       <c r="G341" s="24"/>
-      <c r="H341" s="60"/>
+      <c r="H341" s="57"/>
     </row>
     <row r="342" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B342" s="24"/>
@@ -7889,7 +7865,7 @@
       <c r="E342" s="24"/>
       <c r="F342" s="24"/>
       <c r="G342" s="24"/>
-      <c r="H342" s="60"/>
+      <c r="H342" s="57"/>
     </row>
     <row r="343" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B343" s="24"/>
@@ -7898,7 +7874,7 @@
       <c r="E343" s="24"/>
       <c r="F343" s="24"/>
       <c r="G343" s="24"/>
-      <c r="H343" s="60"/>
+      <c r="H343" s="57"/>
     </row>
     <row r="344" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B344" s="24"/>
@@ -7907,7 +7883,7 @@
       <c r="E344" s="24"/>
       <c r="F344" s="24"/>
       <c r="G344" s="24"/>
-      <c r="H344" s="60"/>
+      <c r="H344" s="57"/>
     </row>
     <row r="345" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B345" s="24"/>
@@ -7916,7 +7892,7 @@
       <c r="E345" s="24"/>
       <c r="F345" s="24"/>
       <c r="G345" s="24"/>
-      <c r="H345" s="60"/>
+      <c r="H345" s="57"/>
     </row>
     <row r="346" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B346" s="24"/>
@@ -7925,7 +7901,7 @@
       <c r="E346" s="24"/>
       <c r="F346" s="24"/>
       <c r="G346" s="24"/>
-      <c r="H346" s="60"/>
+      <c r="H346" s="57"/>
     </row>
     <row r="347" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B347" s="24"/>
@@ -7934,7 +7910,7 @@
       <c r="E347" s="24"/>
       <c r="F347" s="24"/>
       <c r="G347" s="24"/>
-      <c r="H347" s="60"/>
+      <c r="H347" s="57"/>
     </row>
     <row r="348" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B348" s="24"/>
@@ -7943,7 +7919,7 @@
       <c r="E348" s="24"/>
       <c r="F348" s="24"/>
       <c r="G348" s="24"/>
-      <c r="H348" s="60"/>
+      <c r="H348" s="57"/>
     </row>
     <row r="349" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B349" s="24"/>
@@ -7952,7 +7928,7 @@
       <c r="E349" s="24"/>
       <c r="F349" s="24"/>
       <c r="G349" s="24"/>
-      <c r="H349" s="60"/>
+      <c r="H349" s="57"/>
     </row>
     <row r="350" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B350" s="24"/>
@@ -7961,7 +7937,7 @@
       <c r="E350" s="24"/>
       <c r="F350" s="24"/>
       <c r="G350" s="24"/>
-      <c r="H350" s="60"/>
+      <c r="H350" s="57"/>
     </row>
     <row r="351" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B351" s="24"/>
@@ -7970,7 +7946,7 @@
       <c r="E351" s="24"/>
       <c r="F351" s="24"/>
       <c r="G351" s="24"/>
-      <c r="H351" s="60"/>
+      <c r="H351" s="57"/>
     </row>
     <row r="352" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B352" s="24"/>
@@ -7979,7 +7955,7 @@
       <c r="E352" s="24"/>
       <c r="F352" s="24"/>
       <c r="G352" s="24"/>
-      <c r="H352" s="60"/>
+      <c r="H352" s="57"/>
     </row>
     <row r="353" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B353" s="24"/>
@@ -7988,7 +7964,7 @@
       <c r="E353" s="24"/>
       <c r="F353" s="24"/>
       <c r="G353" s="24"/>
-      <c r="H353" s="60"/>
+      <c r="H353" s="57"/>
     </row>
     <row r="354" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B354" s="24"/>
@@ -7997,7 +7973,7 @@
       <c r="E354" s="24"/>
       <c r="F354" s="24"/>
       <c r="G354" s="24"/>
-      <c r="H354" s="60"/>
+      <c r="H354" s="57"/>
     </row>
     <row r="355" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B355" s="24"/>
@@ -8006,7 +7982,7 @@
       <c r="E355" s="24"/>
       <c r="F355" s="24"/>
       <c r="G355" s="24"/>
-      <c r="H355" s="60"/>
+      <c r="H355" s="57"/>
     </row>
     <row r="356" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B356" s="24"/>
@@ -8015,7 +7991,7 @@
       <c r="E356" s="24"/>
       <c r="F356" s="24"/>
       <c r="G356" s="24"/>
-      <c r="H356" s="60"/>
+      <c r="H356" s="57"/>
     </row>
     <row r="357" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B357" s="24"/>
@@ -8024,7 +8000,7 @@
       <c r="E357" s="24"/>
       <c r="F357" s="24"/>
       <c r="G357" s="24"/>
-      <c r="H357" s="60"/>
+      <c r="H357" s="57"/>
     </row>
     <row r="358" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B358" s="24"/>
@@ -8033,7 +8009,7 @@
       <c r="E358" s="24"/>
       <c r="F358" s="24"/>
       <c r="G358" s="24"/>
-      <c r="H358" s="60"/>
+      <c r="H358" s="57"/>
     </row>
     <row r="359" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B359" s="24"/>
@@ -8042,7 +8018,7 @@
       <c r="E359" s="24"/>
       <c r="F359" s="24"/>
       <c r="G359" s="24"/>
-      <c r="H359" s="60"/>
+      <c r="H359" s="57"/>
     </row>
     <row r="360" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B360" s="24"/>
@@ -8051,7 +8027,7 @@
       <c r="E360" s="24"/>
       <c r="F360" s="24"/>
       <c r="G360" s="24"/>
-      <c r="H360" s="60"/>
+      <c r="H360" s="57"/>
     </row>
     <row r="361" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B361" s="24"/>
@@ -8060,7 +8036,7 @@
       <c r="E361" s="24"/>
       <c r="F361" s="24"/>
       <c r="G361" s="24"/>
-      <c r="H361" s="60"/>
+      <c r="H361" s="57"/>
     </row>
     <row r="362" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B362" s="24"/>
@@ -8069,7 +8045,7 @@
       <c r="E362" s="24"/>
       <c r="F362" s="24"/>
       <c r="G362" s="24"/>
-      <c r="H362" s="60"/>
+      <c r="H362" s="57"/>
     </row>
     <row r="363" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B363" s="24"/>
@@ -8078,7 +8054,7 @@
       <c r="E363" s="24"/>
       <c r="F363" s="24"/>
       <c r="G363" s="24"/>
-      <c r="H363" s="60"/>
+      <c r="H363" s="57"/>
     </row>
     <row r="364" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B364" s="24"/>
@@ -8087,7 +8063,7 @@
       <c r="E364" s="24"/>
       <c r="F364" s="24"/>
       <c r="G364" s="24"/>
-      <c r="H364" s="60"/>
+      <c r="H364" s="57"/>
     </row>
     <row r="365" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B365" s="24"/>
@@ -8096,7 +8072,7 @@
       <c r="E365" s="24"/>
       <c r="F365" s="24"/>
       <c r="G365" s="24"/>
-      <c r="H365" s="60"/>
+      <c r="H365" s="57"/>
     </row>
     <row r="366" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B366" s="24"/>
@@ -8105,7 +8081,7 @@
       <c r="E366" s="24"/>
       <c r="F366" s="24"/>
       <c r="G366" s="24"/>
-      <c r="H366" s="60"/>
+      <c r="H366" s="57"/>
     </row>
     <row r="367" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B367" s="24"/>
@@ -8114,7 +8090,7 @@
       <c r="E367" s="24"/>
       <c r="F367" s="24"/>
       <c r="G367" s="24"/>
-      <c r="H367" s="60"/>
+      <c r="H367" s="57"/>
     </row>
     <row r="368" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B368" s="24"/>
@@ -8123,7 +8099,7 @@
       <c r="E368" s="24"/>
       <c r="F368" s="24"/>
       <c r="G368" s="24"/>
-      <c r="H368" s="60"/>
+      <c r="H368" s="57"/>
     </row>
     <row r="369" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B369" s="24"/>
@@ -8132,7 +8108,7 @@
       <c r="E369" s="24"/>
       <c r="F369" s="24"/>
       <c r="G369" s="24"/>
-      <c r="H369" s="60"/>
+      <c r="H369" s="57"/>
     </row>
     <row r="370" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B370" s="24"/>
@@ -8141,7 +8117,7 @@
       <c r="E370" s="24"/>
       <c r="F370" s="24"/>
       <c r="G370" s="24"/>
-      <c r="H370" s="60"/>
+      <c r="H370" s="57"/>
     </row>
     <row r="371" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B371" s="24"/>
@@ -8150,7 +8126,7 @@
       <c r="E371" s="24"/>
       <c r="F371" s="24"/>
       <c r="G371" s="24"/>
-      <c r="H371" s="60"/>
+      <c r="H371" s="57"/>
     </row>
     <row r="372" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B372" s="24"/>
@@ -8159,7 +8135,7 @@
       <c r="E372" s="24"/>
       <c r="F372" s="24"/>
       <c r="G372" s="24"/>
-      <c r="H372" s="60"/>
+      <c r="H372" s="57"/>
     </row>
     <row r="373" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B373" s="24"/>
@@ -8168,7 +8144,7 @@
       <c r="E373" s="24"/>
       <c r="F373" s="24"/>
       <c r="G373" s="24"/>
-      <c r="H373" s="60"/>
+      <c r="H373" s="57"/>
     </row>
     <row r="374" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B374" s="24"/>
@@ -8177,7 +8153,7 @@
       <c r="E374" s="24"/>
       <c r="F374" s="24"/>
       <c r="G374" s="24"/>
-      <c r="H374" s="60"/>
+      <c r="H374" s="57"/>
     </row>
     <row r="375" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B375" s="24"/>
@@ -8186,7 +8162,7 @@
       <c r="E375" s="24"/>
       <c r="F375" s="24"/>
       <c r="G375" s="24"/>
-      <c r="H375" s="60"/>
+      <c r="H375" s="57"/>
     </row>
     <row r="376" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B376" s="24"/>
@@ -8195,7 +8171,7 @@
       <c r="E376" s="24"/>
       <c r="F376" s="24"/>
       <c r="G376" s="24"/>
-      <c r="H376" s="60"/>
+      <c r="H376" s="57"/>
     </row>
     <row r="377" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B377" s="24"/>
@@ -8204,7 +8180,7 @@
       <c r="E377" s="24"/>
       <c r="F377" s="24"/>
       <c r="G377" s="24"/>
-      <c r="H377" s="60"/>
+      <c r="H377" s="57"/>
     </row>
     <row r="378" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B378" s="24"/>
@@ -8213,7 +8189,7 @@
       <c r="E378" s="24"/>
       <c r="F378" s="24"/>
       <c r="G378" s="24"/>
-      <c r="H378" s="60"/>
+      <c r="H378" s="57"/>
     </row>
     <row r="379" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B379" s="24"/>
@@ -8222,7 +8198,7 @@
       <c r="E379" s="24"/>
       <c r="F379" s="24"/>
       <c r="G379" s="24"/>
-      <c r="H379" s="60"/>
+      <c r="H379" s="57"/>
     </row>
     <row r="380" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B380" s="24"/>
@@ -8231,7 +8207,7 @@
       <c r="E380" s="24"/>
       <c r="F380" s="24"/>
       <c r="G380" s="24"/>
-      <c r="H380" s="60"/>
+      <c r="H380" s="57"/>
     </row>
     <row r="381" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B381" s="24"/>
@@ -8240,7 +8216,7 @@
       <c r="E381" s="24"/>
       <c r="F381" s="24"/>
       <c r="G381" s="24"/>
-      <c r="H381" s="60"/>
+      <c r="H381" s="57"/>
     </row>
     <row r="382" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B382" s="24"/>
@@ -8249,7 +8225,7 @@
       <c r="E382" s="24"/>
       <c r="F382" s="24"/>
       <c r="G382" s="24"/>
-      <c r="H382" s="60"/>
+      <c r="H382" s="57"/>
     </row>
     <row r="383" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B383" s="24"/>
@@ -8258,7 +8234,7 @@
       <c r="E383" s="24"/>
       <c r="F383" s="24"/>
       <c r="G383" s="24"/>
-      <c r="H383" s="60"/>
+      <c r="H383" s="57"/>
     </row>
     <row r="384" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B384" s="24"/>
@@ -8267,7 +8243,7 @@
       <c r="E384" s="24"/>
       <c r="F384" s="24"/>
       <c r="G384" s="24"/>
-      <c r="H384" s="60"/>
+      <c r="H384" s="57"/>
     </row>
     <row r="385" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B385" s="24"/>
@@ -8276,7 +8252,7 @@
       <c r="E385" s="24"/>
       <c r="F385" s="24"/>
       <c r="G385" s="24"/>
-      <c r="H385" s="60"/>
+      <c r="H385" s="57"/>
     </row>
     <row r="386" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B386" s="24"/>
@@ -8285,7 +8261,7 @@
       <c r="E386" s="24"/>
       <c r="F386" s="24"/>
       <c r="G386" s="24"/>
-      <c r="H386" s="60"/>
+      <c r="H386" s="57"/>
     </row>
     <row r="387" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B387" s="24"/>
@@ -8294,7 +8270,7 @@
       <c r="E387" s="24"/>
       <c r="F387" s="24"/>
       <c r="G387" s="24"/>
-      <c r="H387" s="60"/>
+      <c r="H387" s="57"/>
     </row>
     <row r="388" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B388" s="24"/>
@@ -8303,7 +8279,7 @@
       <c r="E388" s="24"/>
       <c r="F388" s="24"/>
       <c r="G388" s="24"/>
-      <c r="H388" s="60"/>
+      <c r="H388" s="57"/>
     </row>
     <row r="389" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B389" s="24"/>
@@ -8312,7 +8288,7 @@
       <c r="E389" s="24"/>
       <c r="F389" s="24"/>
       <c r="G389" s="24"/>
-      <c r="H389" s="60"/>
+      <c r="H389" s="57"/>
     </row>
     <row r="390" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B390" s="24"/>
@@ -8321,7 +8297,7 @@
       <c r="E390" s="24"/>
       <c r="F390" s="24"/>
       <c r="G390" s="24"/>
-      <c r="H390" s="60"/>
+      <c r="H390" s="57"/>
     </row>
     <row r="391" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B391" s="24"/>
@@ -8330,7 +8306,7 @@
       <c r="E391" s="24"/>
       <c r="F391" s="24"/>
       <c r="G391" s="24"/>
-      <c r="H391" s="60"/>
+      <c r="H391" s="57"/>
     </row>
     <row r="392" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B392" s="24"/>
@@ -8339,7 +8315,7 @@
       <c r="E392" s="24"/>
       <c r="F392" s="24"/>
       <c r="G392" s="24"/>
-      <c r="H392" s="60"/>
+      <c r="H392" s="57"/>
     </row>
     <row r="393" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B393" s="24"/>
@@ -8348,7 +8324,7 @@
       <c r="E393" s="24"/>
       <c r="F393" s="24"/>
       <c r="G393" s="24"/>
-      <c r="H393" s="60"/>
+      <c r="H393" s="57"/>
     </row>
     <row r="394" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B394" s="24"/>
@@ -8357,7 +8333,7 @@
       <c r="E394" s="24"/>
       <c r="F394" s="24"/>
       <c r="G394" s="24"/>
-      <c r="H394" s="60"/>
+      <c r="H394" s="57"/>
     </row>
     <row r="395" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B395" s="24"/>
@@ -8366,7 +8342,7 @@
       <c r="E395" s="24"/>
       <c r="F395" s="24"/>
       <c r="G395" s="24"/>
-      <c r="H395" s="60"/>
+      <c r="H395" s="57"/>
     </row>
     <row r="396" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B396" s="24"/>
@@ -8375,7 +8351,7 @@
       <c r="E396" s="24"/>
       <c r="F396" s="24"/>
       <c r="G396" s="24"/>
-      <c r="H396" s="60"/>
+      <c r="H396" s="57"/>
     </row>
     <row r="397" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B397" s="24"/>
@@ -8384,7 +8360,7 @@
       <c r="E397" s="24"/>
       <c r="F397" s="24"/>
       <c r="G397" s="24"/>
-      <c r="H397" s="60"/>
+      <c r="H397" s="57"/>
     </row>
     <row r="398" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B398" s="24"/>
@@ -8393,7 +8369,7 @@
       <c r="E398" s="24"/>
       <c r="F398" s="24"/>
       <c r="G398" s="24"/>
-      <c r="H398" s="60"/>
+      <c r="H398" s="57"/>
     </row>
     <row r="399" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B399" s="24"/>
@@ -8402,7 +8378,7 @@
       <c r="E399" s="24"/>
       <c r="F399" s="24"/>
       <c r="G399" s="24"/>
-      <c r="H399" s="60"/>
+      <c r="H399" s="57"/>
     </row>
     <row r="400" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B400" s="24"/>
@@ -8411,7 +8387,7 @@
       <c r="E400" s="24"/>
       <c r="F400" s="24"/>
       <c r="G400" s="24"/>
-      <c r="H400" s="60"/>
+      <c r="H400" s="57"/>
     </row>
     <row r="401" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B401" s="24"/>
@@ -8420,7 +8396,7 @@
       <c r="E401" s="24"/>
       <c r="F401" s="24"/>
       <c r="G401" s="24"/>
-      <c r="H401" s="60"/>
+      <c r="H401" s="57"/>
     </row>
     <row r="402" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B402" s="24"/>
@@ -8429,7 +8405,7 @@
       <c r="E402" s="24"/>
       <c r="F402" s="24"/>
       <c r="G402" s="24"/>
-      <c r="H402" s="60"/>
+      <c r="H402" s="57"/>
     </row>
     <row r="403" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B403" s="24"/>
@@ -8438,7 +8414,7 @@
       <c r="E403" s="24"/>
       <c r="F403" s="24"/>
       <c r="G403" s="24"/>
-      <c r="H403" s="60"/>
+      <c r="H403" s="57"/>
     </row>
     <row r="404" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B404" s="24"/>
@@ -8447,7 +8423,7 @@
       <c r="E404" s="24"/>
       <c r="F404" s="24"/>
       <c r="G404" s="24"/>
-      <c r="H404" s="60"/>
+      <c r="H404" s="57"/>
     </row>
     <row r="405" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B405" s="24"/>
@@ -8456,7 +8432,7 @@
       <c r="E405" s="24"/>
       <c r="F405" s="24"/>
       <c r="G405" s="24"/>
-      <c r="H405" s="60"/>
+      <c r="H405" s="57"/>
     </row>
     <row r="406" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B406" s="24"/>
@@ -8465,7 +8441,7 @@
       <c r="E406" s="24"/>
       <c r="F406" s="24"/>
       <c r="G406" s="24"/>
-      <c r="H406" s="60"/>
+      <c r="H406" s="57"/>
     </row>
     <row r="407" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B407" s="24"/>
@@ -8474,7 +8450,7 @@
       <c r="E407" s="24"/>
       <c r="F407" s="24"/>
       <c r="G407" s="24"/>
-      <c r="H407" s="60"/>
+      <c r="H407" s="57"/>
     </row>
     <row r="408" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B408" s="24"/>
@@ -8483,7 +8459,7 @@
       <c r="E408" s="24"/>
       <c r="F408" s="24"/>
       <c r="G408" s="24"/>
-      <c r="H408" s="60"/>
+      <c r="H408" s="57"/>
     </row>
     <row r="409" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B409" s="24"/>
@@ -8492,7 +8468,7 @@
       <c r="E409" s="24"/>
       <c r="F409" s="24"/>
       <c r="G409" s="24"/>
-      <c r="H409" s="60"/>
+      <c r="H409" s="57"/>
     </row>
     <row r="410" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B410" s="24"/>
@@ -8501,7 +8477,7 @@
       <c r="E410" s="24"/>
       <c r="F410" s="24"/>
       <c r="G410" s="24"/>
-      <c r="H410" s="60"/>
+      <c r="H410" s="57"/>
     </row>
     <row r="411" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B411" s="24"/>
@@ -8510,7 +8486,7 @@
       <c r="E411" s="24"/>
       <c r="F411" s="24"/>
       <c r="G411" s="24"/>
-      <c r="H411" s="60"/>
+      <c r="H411" s="57"/>
     </row>
     <row r="412" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B412" s="24"/>
@@ -8519,7 +8495,7 @@
       <c r="E412" s="24"/>
       <c r="F412" s="24"/>
       <c r="G412" s="24"/>
-      <c r="H412" s="60"/>
+      <c r="H412" s="57"/>
     </row>
     <row r="413" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B413" s="24"/>
@@ -8528,7 +8504,7 @@
       <c r="E413" s="24"/>
       <c r="F413" s="24"/>
       <c r="G413" s="24"/>
-      <c r="H413" s="60"/>
+      <c r="H413" s="57"/>
     </row>
     <row r="414" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B414" s="24"/>
@@ -8537,7 +8513,7 @@
       <c r="E414" s="24"/>
       <c r="F414" s="24"/>
       <c r="G414" s="24"/>
-      <c r="H414" s="60"/>
+      <c r="H414" s="57"/>
     </row>
     <row r="415" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B415" s="24"/>
@@ -8546,7 +8522,7 @@
       <c r="E415" s="24"/>
       <c r="F415" s="24"/>
       <c r="G415" s="24"/>
-      <c r="H415" s="60"/>
+      <c r="H415" s="57"/>
     </row>
     <row r="416" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B416" s="24"/>
@@ -8555,7 +8531,7 @@
       <c r="E416" s="24"/>
       <c r="F416" s="24"/>
       <c r="G416" s="24"/>
-      <c r="H416" s="60"/>
+      <c r="H416" s="57"/>
     </row>
     <row r="417" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B417" s="24"/>
@@ -8564,7 +8540,7 @@
       <c r="E417" s="24"/>
       <c r="F417" s="24"/>
       <c r="G417" s="24"/>
-      <c r="H417" s="60"/>
+      <c r="H417" s="57"/>
     </row>
     <row r="418" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B418" s="24"/>
@@ -8573,7 +8549,7 @@
       <c r="E418" s="24"/>
       <c r="F418" s="24"/>
       <c r="G418" s="24"/>
-      <c r="H418" s="60"/>
+      <c r="H418" s="57"/>
     </row>
     <row r="419" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B419" s="24"/>
@@ -8582,7 +8558,7 @@
       <c r="E419" s="24"/>
       <c r="F419" s="24"/>
       <c r="G419" s="24"/>
-      <c r="H419" s="60"/>
+      <c r="H419" s="57"/>
     </row>
     <row r="420" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B420" s="24"/>
@@ -8591,7 +8567,7 @@
       <c r="E420" s="24"/>
       <c r="F420" s="24"/>
       <c r="G420" s="24"/>
-      <c r="H420" s="60"/>
+      <c r="H420" s="57"/>
     </row>
     <row r="421" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B421" s="24"/>
@@ -8600,7 +8576,7 @@
       <c r="E421" s="24"/>
       <c r="F421" s="24"/>
       <c r="G421" s="24"/>
-      <c r="H421" s="60"/>
+      <c r="H421" s="57"/>
     </row>
     <row r="422" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B422" s="24"/>
@@ -8609,7 +8585,7 @@
       <c r="E422" s="24"/>
       <c r="F422" s="24"/>
       <c r="G422" s="24"/>
-      <c r="H422" s="60"/>
+      <c r="H422" s="57"/>
     </row>
     <row r="423" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B423" s="24"/>
@@ -8618,7 +8594,7 @@
       <c r="E423" s="24"/>
       <c r="F423" s="24"/>
       <c r="G423" s="24"/>
-      <c r="H423" s="60"/>
+      <c r="H423" s="57"/>
     </row>
     <row r="424" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B424" s="24"/>
@@ -8627,7 +8603,7 @@
       <c r="E424" s="24"/>
       <c r="F424" s="24"/>
       <c r="G424" s="24"/>
-      <c r="H424" s="60"/>
+      <c r="H424" s="57"/>
     </row>
     <row r="425" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B425" s="24"/>
@@ -8636,7 +8612,7 @@
       <c r="E425" s="24"/>
       <c r="F425" s="24"/>
       <c r="G425" s="24"/>
-      <c r="H425" s="60"/>
+      <c r="H425" s="57"/>
     </row>
     <row r="426" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B426" s="24"/>
@@ -8645,7 +8621,7 @@
       <c r="E426" s="24"/>
       <c r="F426" s="24"/>
       <c r="G426" s="24"/>
-      <c r="H426" s="60"/>
+      <c r="H426" s="57"/>
     </row>
     <row r="427" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B427" s="24"/>
@@ -8654,7 +8630,7 @@
       <c r="E427" s="24"/>
       <c r="F427" s="24"/>
       <c r="G427" s="24"/>
-      <c r="H427" s="60"/>
+      <c r="H427" s="57"/>
     </row>
     <row r="428" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B428" s="24"/>
@@ -8663,7 +8639,7 @@
       <c r="E428" s="24"/>
       <c r="F428" s="24"/>
       <c r="G428" s="24"/>
-      <c r="H428" s="60"/>
+      <c r="H428" s="57"/>
     </row>
     <row r="429" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B429" s="24"/>
@@ -8672,7 +8648,7 @@
       <c r="E429" s="24"/>
       <c r="F429" s="24"/>
       <c r="G429" s="24"/>
-      <c r="H429" s="60"/>
+      <c r="H429" s="57"/>
     </row>
     <row r="430" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B430" s="24"/>
@@ -8681,7 +8657,7 @@
       <c r="E430" s="24"/>
       <c r="F430" s="24"/>
       <c r="G430" s="24"/>
-      <c r="H430" s="60"/>
+      <c r="H430" s="57"/>
     </row>
     <row r="431" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B431" s="24"/>
@@ -8690,7 +8666,7 @@
       <c r="E431" s="24"/>
       <c r="F431" s="24"/>
       <c r="G431" s="24"/>
-      <c r="H431" s="60"/>
+      <c r="H431" s="57"/>
     </row>
     <row r="432" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B432" s="24"/>
@@ -8699,7 +8675,7 @@
       <c r="E432" s="24"/>
       <c r="F432" s="24"/>
       <c r="G432" s="24"/>
-      <c r="H432" s="60"/>
+      <c r="H432" s="57"/>
     </row>
     <row r="433" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B433" s="24"/>
@@ -8708,7 +8684,7 @@
       <c r="E433" s="24"/>
       <c r="F433" s="24"/>
       <c r="G433" s="24"/>
-      <c r="H433" s="60"/>
+      <c r="H433" s="57"/>
     </row>
     <row r="434" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B434" s="24"/>
@@ -8717,7 +8693,7 @@
       <c r="E434" s="24"/>
       <c r="F434" s="24"/>
       <c r="G434" s="24"/>
-      <c r="H434" s="60"/>
+      <c r="H434" s="57"/>
     </row>
     <row r="435" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B435" s="24"/>
@@ -8726,7 +8702,7 @@
       <c r="E435" s="24"/>
       <c r="F435" s="24"/>
       <c r="G435" s="24"/>
-      <c r="H435" s="60"/>
+      <c r="H435" s="57"/>
     </row>
     <row r="436" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B436" s="24"/>
@@ -8735,7 +8711,7 @@
       <c r="E436" s="24"/>
       <c r="F436" s="24"/>
       <c r="G436" s="24"/>
-      <c r="H436" s="60"/>
+      <c r="H436" s="57"/>
     </row>
     <row r="437" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B437" s="24"/>
@@ -8744,7 +8720,7 @@
       <c r="E437" s="24"/>
       <c r="F437" s="24"/>
       <c r="G437" s="24"/>
-      <c r="H437" s="60"/>
+      <c r="H437" s="57"/>
     </row>
     <row r="438" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B438" s="24"/>
@@ -8753,7 +8729,7 @@
       <c r="E438" s="24"/>
       <c r="F438" s="24"/>
       <c r="G438" s="24"/>
-      <c r="H438" s="60"/>
+      <c r="H438" s="57"/>
     </row>
     <row r="439" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B439" s="24"/>
@@ -8762,7 +8738,7 @@
       <c r="E439" s="24"/>
       <c r="F439" s="24"/>
       <c r="G439" s="24"/>
-      <c r="H439" s="60"/>
+      <c r="H439" s="57"/>
     </row>
     <row r="440" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B440" s="24"/>
@@ -8771,7 +8747,7 @@
       <c r="E440" s="24"/>
       <c r="F440" s="24"/>
       <c r="G440" s="24"/>
-      <c r="H440" s="60"/>
+      <c r="H440" s="57"/>
     </row>
     <row r="441" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B441" s="24"/>
@@ -8780,7 +8756,7 @@
       <c r="E441" s="24"/>
       <c r="F441" s="24"/>
       <c r="G441" s="24"/>
-      <c r="H441" s="60"/>
+      <c r="H441" s="57"/>
     </row>
     <row r="442" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B442" s="24"/>
@@ -8789,7 +8765,7 @@
       <c r="E442" s="24"/>
       <c r="F442" s="24"/>
       <c r="G442" s="24"/>
-      <c r="H442" s="60"/>
+      <c r="H442" s="57"/>
     </row>
     <row r="443" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B443" s="24"/>
@@ -8798,7 +8774,7 @@
       <c r="E443" s="24"/>
       <c r="F443" s="24"/>
       <c r="G443" s="24"/>
-      <c r="H443" s="60"/>
+      <c r="H443" s="57"/>
     </row>
     <row r="444" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B444" s="24"/>
@@ -8807,7 +8783,7 @@
       <c r="E444" s="24"/>
       <c r="F444" s="24"/>
       <c r="G444" s="24"/>
-      <c r="H444" s="60"/>
+      <c r="H444" s="57"/>
     </row>
     <row r="445" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B445" s="24"/>
@@ -8816,7 +8792,7 @@
       <c r="E445" s="24"/>
       <c r="F445" s="24"/>
       <c r="G445" s="24"/>
-      <c r="H445" s="60"/>
+      <c r="H445" s="57"/>
     </row>
     <row r="446" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B446" s="24"/>
@@ -8825,7 +8801,7 @@
       <c r="E446" s="24"/>
       <c r="F446" s="24"/>
       <c r="G446" s="24"/>
-      <c r="H446" s="60"/>
+      <c r="H446" s="57"/>
     </row>
     <row r="447" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B447" s="24"/>
@@ -8834,7 +8810,7 @@
       <c r="E447" s="24"/>
       <c r="F447" s="24"/>
       <c r="G447" s="24"/>
-      <c r="H447" s="60"/>
+      <c r="H447" s="57"/>
     </row>
     <row r="448" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B448" s="24"/>
@@ -8843,7 +8819,7 @@
       <c r="E448" s="24"/>
       <c r="F448" s="24"/>
       <c r="G448" s="24"/>
-      <c r="H448" s="60"/>
+      <c r="H448" s="57"/>
     </row>
     <row r="449" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B449" s="24"/>
@@ -8852,7 +8828,7 @@
       <c r="E449" s="24"/>
       <c r="F449" s="24"/>
       <c r="G449" s="24"/>
-      <c r="H449" s="60"/>
+      <c r="H449" s="57"/>
     </row>
     <row r="450" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B450" s="24"/>
@@ -8861,7 +8837,7 @@
       <c r="E450" s="24"/>
       <c r="F450" s="24"/>
       <c r="G450" s="24"/>
-      <c r="H450" s="60"/>
+      <c r="H450" s="57"/>
     </row>
     <row r="451" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B451" s="24"/>
@@ -8870,7 +8846,7 @@
       <c r="E451" s="24"/>
       <c r="F451" s="24"/>
       <c r="G451" s="24"/>
-      <c r="H451" s="60"/>
+      <c r="H451" s="57"/>
     </row>
     <row r="452" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B452" s="24"/>
@@ -8879,7 +8855,7 @@
       <c r="E452" s="24"/>
       <c r="F452" s="24"/>
       <c r="G452" s="24"/>
-      <c r="H452" s="60"/>
+      <c r="H452" s="57"/>
     </row>
     <row r="453" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B453" s="24"/>
@@ -8888,7 +8864,7 @@
       <c r="E453" s="24"/>
       <c r="F453" s="24"/>
       <c r="G453" s="24"/>
-      <c r="H453" s="60"/>
+      <c r="H453" s="57"/>
     </row>
     <row r="454" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B454" s="24"/>
@@ -8897,7 +8873,7 @@
       <c r="E454" s="24"/>
       <c r="F454" s="24"/>
       <c r="G454" s="24"/>
-      <c r="H454" s="60"/>
+      <c r="H454" s="57"/>
     </row>
     <row r="455" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B455" s="24"/>
@@ -8906,7 +8882,7 @@
       <c r="E455" s="24"/>
       <c r="F455" s="24"/>
       <c r="G455" s="24"/>
-      <c r="H455" s="60"/>
+      <c r="H455" s="57"/>
     </row>
     <row r="456" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B456" s="24"/>
@@ -8915,7 +8891,7 @@
       <c r="E456" s="24"/>
       <c r="F456" s="24"/>
       <c r="G456" s="24"/>
-      <c r="H456" s="60"/>
+      <c r="H456" s="57"/>
     </row>
     <row r="457" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B457" s="24"/>
@@ -8924,7 +8900,7 @@
       <c r="E457" s="24"/>
       <c r="F457" s="24"/>
       <c r="G457" s="24"/>
-      <c r="H457" s="60"/>
+      <c r="H457" s="57"/>
     </row>
     <row r="458" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B458" s="24"/>
@@ -8933,7 +8909,7 @@
       <c r="E458" s="24"/>
       <c r="F458" s="24"/>
       <c r="G458" s="24"/>
-      <c r="H458" s="60"/>
+      <c r="H458" s="57"/>
     </row>
     <row r="459" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B459" s="24"/>
@@ -8942,7 +8918,7 @@
       <c r="E459" s="24"/>
       <c r="F459" s="24"/>
       <c r="G459" s="24"/>
-      <c r="H459" s="60"/>
+      <c r="H459" s="57"/>
     </row>
     <row r="460" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B460" s="24"/>
@@ -8951,7 +8927,7 @@
       <c r="E460" s="24"/>
       <c r="F460" s="24"/>
       <c r="G460" s="24"/>
-      <c r="H460" s="60"/>
+      <c r="H460" s="57"/>
     </row>
     <row r="461" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B461" s="24"/>
@@ -8960,7 +8936,7 @@
       <c r="E461" s="24"/>
       <c r="F461" s="24"/>
       <c r="G461" s="24"/>
-      <c r="H461" s="60"/>
+      <c r="H461" s="57"/>
     </row>
     <row r="462" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B462" s="24"/>
@@ -8969,7 +8945,7 @@
       <c r="E462" s="24"/>
       <c r="F462" s="24"/>
       <c r="G462" s="24"/>
-      <c r="H462" s="60"/>
+      <c r="H462" s="57"/>
     </row>
     <row r="463" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B463" s="24"/>
@@ -8978,7 +8954,7 @@
       <c r="E463" s="24"/>
       <c r="F463" s="24"/>
       <c r="G463" s="24"/>
-      <c r="H463" s="60"/>
+      <c r="H463" s="57"/>
     </row>
     <row r="464" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B464" s="24"/>
@@ -8987,7 +8963,7 @@
       <c r="E464" s="24"/>
       <c r="F464" s="24"/>
       <c r="G464" s="24"/>
-      <c r="H464" s="60"/>
+      <c r="H464" s="57"/>
     </row>
     <row r="465" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B465" s="24"/>
@@ -8996,7 +8972,7 @@
       <c r="E465" s="24"/>
       <c r="F465" s="24"/>
       <c r="G465" s="24"/>
-      <c r="H465" s="60"/>
+      <c r="H465" s="57"/>
     </row>
     <row r="466" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B466" s="24"/>
@@ -9005,7 +8981,7 @@
       <c r="E466" s="24"/>
       <c r="F466" s="24"/>
       <c r="G466" s="24"/>
-      <c r="H466" s="60"/>
+      <c r="H466" s="57"/>
     </row>
     <row r="467" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B467" s="24"/>
@@ -9014,7 +8990,7 @@
       <c r="E467" s="24"/>
       <c r="F467" s="24"/>
       <c r="G467" s="24"/>
-      <c r="H467" s="60"/>
+      <c r="H467" s="57"/>
     </row>
     <row r="468" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B468" s="24"/>
@@ -9023,7 +8999,7 @@
       <c r="E468" s="24"/>
       <c r="F468" s="24"/>
       <c r="G468" s="24"/>
-      <c r="H468" s="60"/>
+      <c r="H468" s="57"/>
     </row>
     <row r="469" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B469" s="24"/>
@@ -9032,7 +9008,7 @@
       <c r="E469" s="24"/>
       <c r="F469" s="24"/>
       <c r="G469" s="24"/>
-      <c r="H469" s="60"/>
+      <c r="H469" s="57"/>
     </row>
     <row r="470" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B470" s="24"/>
@@ -9041,7 +9017,7 @@
       <c r="E470" s="24"/>
       <c r="F470" s="24"/>
       <c r="G470" s="24"/>
-      <c r="H470" s="60"/>
+      <c r="H470" s="57"/>
     </row>
     <row r="471" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B471" s="24"/>
@@ -9050,7 +9026,7 @@
       <c r="E471" s="24"/>
       <c r="F471" s="24"/>
       <c r="G471" s="24"/>
-      <c r="H471" s="60"/>
+      <c r="H471" s="57"/>
     </row>
     <row r="472" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B472" s="24"/>
@@ -9059,7 +9035,7 @@
       <c r="E472" s="24"/>
       <c r="F472" s="24"/>
       <c r="G472" s="24"/>
-      <c r="H472" s="60"/>
+      <c r="H472" s="57"/>
     </row>
     <row r="473" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B473" s="24"/>
@@ -9068,7 +9044,7 @@
       <c r="E473" s="24"/>
       <c r="F473" s="24"/>
       <c r="G473" s="24"/>
-      <c r="H473" s="60"/>
+      <c r="H473" s="57"/>
     </row>
     <row r="474" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B474" s="24"/>
@@ -9077,7 +9053,7 @@
       <c r="E474" s="24"/>
       <c r="F474" s="24"/>
       <c r="G474" s="24"/>
-      <c r="H474" s="60"/>
+      <c r="H474" s="57"/>
     </row>
     <row r="475" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B475" s="24"/>
@@ -9086,7 +9062,7 @@
       <c r="E475" s="24"/>
       <c r="F475" s="24"/>
       <c r="G475" s="24"/>
-      <c r="H475" s="60"/>
+      <c r="H475" s="57"/>
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
@@ -9101,92 +9077,92 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C82:C83 C86:C89 C99:C101 C74:C80 B74:B92 G10:H10 B5:D41 C42:D55 B56:D58 B73:D73 C59:D72 B99:B115 D74:D115 C103:C115 F31:H115 F25:H29 F11:H22 F5:H9">
-    <cfRule type="expression" dxfId="20" priority="44">
+    <cfRule type="expression" dxfId="18" priority="44">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84:C85">
-    <cfRule type="expression" dxfId="19" priority="33">
+    <cfRule type="expression" dxfId="17" priority="33">
       <formula>LEN(TRIM(C84))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="expression" dxfId="18" priority="30">
+    <cfRule type="expression" dxfId="16" priority="30">
       <formula>LEN(TRIM(C92))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="expression" dxfId="17" priority="29">
+    <cfRule type="expression" dxfId="15" priority="29">
       <formula>LEN(TRIM(C102))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93:B98">
-    <cfRule type="expression" dxfId="16" priority="28">
+    <cfRule type="expression" dxfId="14" priority="28">
       <formula>LEN(TRIM(B93))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C98">
-    <cfRule type="expression" dxfId="15" priority="27">
+    <cfRule type="expression" dxfId="13" priority="27">
       <formula>LEN(TRIM(C93))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="expression" dxfId="14" priority="26">
+    <cfRule type="expression" dxfId="12" priority="26">
       <formula>LEN(TRIM(C90))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="expression" dxfId="13" priority="25">
+    <cfRule type="expression" dxfId="11" priority="25">
       <formula>LEN(TRIM(C91))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42 B44 B46 B48 B50 B52 B54:B55">
-    <cfRule type="expression" dxfId="12" priority="22">
+    <cfRule type="expression" dxfId="10" priority="22">
       <formula>LEN(TRIM(B42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43 B45 B47 B49 B51 B53">
-    <cfRule type="expression" dxfId="11" priority="21">
+    <cfRule type="expression" dxfId="9" priority="21">
       <formula>LEN(TRIM(B43))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59 B61 B63 B65 B67 B69 B71:B72">
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="8" priority="15">
       <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60 B62 B64 B66 B68 B70">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>LEN(TRIM(B60))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:H24">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>LEN(TRIM(G24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>LEN(TRIM(G23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:H30">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>LEN(TRIM(F30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>LEN(TRIM(F24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>LEN(TRIM(F23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E115">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>LEN(TRIM(E5))=0</formula>
     </cfRule>
   </conditionalFormatting>
